--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b09f9559f6a16b6c/Videos/Tutorials/Power Pivot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Downloads\OneDrive-2023-06-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{17E97043-4E5E-4455-A8E1-D02CDC59038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE7F803E-6058-46BF-B867-52142ACF5DC9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AE736-C78F-4C35-87A8-5208F1E37776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="26400" windowHeight="21000" xr2:uid="{30484135-C3F6-4EA1-AB6C-FA71C53E08E8}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="12555" windowHeight="11505" xr2:uid="{30484135-C3F6-4EA1-AB6C-FA71C53E08E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,15 +125,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -151,6 +142,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -217,12 +214,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -243,8 +234,8 @@
     <tableColumn id="1" xr3:uid="{4AB1371D-EC0C-471B-8345-77A0BFC704CA}" name="Customer ID"/>
     <tableColumn id="2" xr3:uid="{F3DE2F95-5888-442D-80AA-463753EE9DDB}" name="Order ID"/>
     <tableColumn id="3" xr3:uid="{D186EBFA-E8D3-4759-A106-0BFDDFA6F3A2}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{594D2DCA-10E5-42A2-8535-5F8D6E3D86CC}" name="Units Sold" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{C892C2CE-5CE0-40E5-806D-9AC38F1B81A8}" name="Date" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{594D2DCA-10E5-42A2-8535-5F8D6E3D86CC}" name="Units Sold" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C892C2CE-5CE0-40E5-806D-9AC38F1B81A8}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -254,9 +245,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F134AB07-FB03-4124-89FA-D37645EC28B1}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
   <autoFilter ref="A1:C7" xr:uid="{F134AB07-FB03-4124-89FA-D37645EC28B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FF34342B-4263-426A-A659-356754C1E4EF}" name="Cookie Type" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{888BE848-57CD-4938-BF98-7C2216649FB7}" name="Revenue Per Cookie" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{AA8746FC-80E0-4FA0-BDF6-C3F516620DB8}" name="Cost Per Cookie" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{FF34342B-4263-426A-A659-356754C1E4EF}" name="Cookie Type" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{888BE848-57CD-4938-BF98-7C2216649FB7}" name="Revenue Per Cookie" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{AA8746FC-80E0-4FA0-BDF6-C3F516620DB8}" name="Cost Per Cookie" dataDxfId="2" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,7 +553,7 @@
   <dimension ref="A1:E701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +561,8 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,7 +578,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -601,7 +592,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>292</v>
       </c>
       <c r="E2" s="1">
@@ -618,7 +609,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>974</v>
       </c>
       <c r="E3" s="1">
@@ -635,7 +626,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>2518</v>
       </c>
       <c r="E4" s="1">
@@ -652,7 +643,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>1006</v>
       </c>
       <c r="E5" s="1">
@@ -669,7 +660,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>367</v>
       </c>
       <c r="E6" s="1">
@@ -686,7 +677,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>883</v>
       </c>
       <c r="E7" s="1">
@@ -703,7 +694,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>549</v>
       </c>
       <c r="E8" s="1">
@@ -720,7 +711,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>788</v>
       </c>
       <c r="E9" s="1">
@@ -737,7 +728,7 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>2472</v>
       </c>
       <c r="E10" s="1">
@@ -754,7 +745,7 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>1143</v>
       </c>
       <c r="E11" s="1">
@@ -771,7 +762,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>1725</v>
       </c>
       <c r="E12" s="1">
@@ -788,7 +779,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>912</v>
       </c>
       <c r="E13" s="1">
@@ -805,7 +796,7 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>2152</v>
       </c>
       <c r="E14" s="1">
@@ -822,7 +813,7 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>1817</v>
       </c>
       <c r="E15" s="1">
@@ -839,7 +830,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>1513</v>
       </c>
       <c r="E16" s="1">
@@ -856,7 +847,7 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>3945</v>
       </c>
       <c r="E17" s="1">
@@ -873,7 +864,7 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>2296</v>
       </c>
       <c r="E18" s="1">
@@ -890,7 +881,7 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>1030</v>
       </c>
       <c r="E19" s="1">
@@ -907,7 +898,7 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>1514</v>
       </c>
       <c r="E20" s="1">
@@ -924,7 +915,7 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>4492.5</v>
       </c>
       <c r="E21" s="1">
@@ -941,7 +932,7 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>727</v>
       </c>
       <c r="E22" s="1">
@@ -958,7 +949,7 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>787</v>
       </c>
       <c r="E23" s="1">
@@ -975,7 +966,7 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>1823</v>
       </c>
       <c r="E24" s="1">
@@ -992,7 +983,7 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>747</v>
       </c>
       <c r="E25" s="1">
@@ -1009,7 +1000,7 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>766</v>
       </c>
       <c r="E26" s="1">
@@ -1026,7 +1017,7 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>2905</v>
       </c>
       <c r="E27" s="1">
@@ -1043,7 +1034,7 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>2155</v>
       </c>
       <c r="E28" s="1">
@@ -1060,7 +1051,7 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>2363</v>
       </c>
       <c r="E29" s="1">
@@ -1077,7 +1068,7 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>918</v>
       </c>
       <c r="E30" s="1">
@@ -1094,7 +1085,7 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>1728</v>
       </c>
       <c r="E31" s="1">
@@ -1111,7 +1102,7 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>1142</v>
       </c>
       <c r="E32" s="1">
@@ -1128,7 +1119,7 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>662</v>
       </c>
       <c r="E33" s="1">
@@ -1145,7 +1136,7 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>1295</v>
       </c>
       <c r="E34" s="1">
@@ -1162,7 +1153,7 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>809</v>
       </c>
       <c r="E35" s="1">
@@ -1179,7 +1170,7 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>2145</v>
       </c>
       <c r="E36" s="1">
@@ -1196,7 +1187,7 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>1785</v>
       </c>
       <c r="E37" s="1">
@@ -1213,7 +1204,7 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>1916</v>
       </c>
       <c r="E38" s="1">
@@ -1230,7 +1221,7 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>2852</v>
       </c>
       <c r="E39" s="1">
@@ -1247,7 +1238,7 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>2729</v>
       </c>
       <c r="E40" s="1">
@@ -1264,7 +1255,7 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>1925</v>
       </c>
       <c r="E41" s="1">
@@ -1281,7 +1272,7 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>2013</v>
       </c>
       <c r="E42" s="1">
@@ -1298,7 +1289,7 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>1055</v>
       </c>
       <c r="E43" s="1">
@@ -1315,7 +1306,7 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>1084</v>
       </c>
       <c r="E44" s="1">
@@ -1332,7 +1323,7 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>2434.5</v>
       </c>
       <c r="E45" s="1">
@@ -1349,7 +1340,7 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>1774</v>
       </c>
       <c r="E46" s="1">
@@ -1366,7 +1357,7 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>1901</v>
       </c>
       <c r="E47" s="1">
@@ -1383,7 +1374,7 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>689</v>
       </c>
       <c r="E48" s="1">
@@ -1400,7 +1391,7 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>1570</v>
       </c>
       <c r="E49" s="1">
@@ -1417,7 +1408,7 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>1369.5</v>
       </c>
       <c r="E50" s="1">
@@ -1434,7 +1425,7 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>2009</v>
       </c>
       <c r="E51" s="1">
@@ -1451,7 +1442,7 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="5">
         <v>1945</v>
       </c>
       <c r="E52" s="1">
@@ -1468,7 +1459,7 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="5">
         <v>1287</v>
       </c>
       <c r="E53" s="1">
@@ -1485,7 +1476,7 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="5">
         <v>1706</v>
       </c>
       <c r="E54" s="1">
@@ -1502,7 +1493,7 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="5">
         <v>1760</v>
       </c>
       <c r="E55" s="1">
@@ -1519,7 +1510,7 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="5">
         <v>2031</v>
       </c>
       <c r="E56" s="1">
@@ -1536,7 +1527,7 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="5">
         <v>2261</v>
       </c>
       <c r="E57" s="1">
@@ -1553,7 +1544,7 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>4251</v>
       </c>
       <c r="E58" s="1">
@@ -1570,7 +1561,7 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="5">
         <v>795</v>
       </c>
       <c r="E59" s="1">
@@ -1587,7 +1578,7 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>1414.5</v>
       </c>
       <c r="E60" s="1">
@@ -1604,7 +1595,7 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="5">
         <v>2918</v>
       </c>
       <c r="E61" s="1">
@@ -1621,7 +1612,7 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="5">
         <v>3450</v>
       </c>
       <c r="E62" s="1">
@@ -1638,7 +1629,7 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="5">
         <v>2988</v>
       </c>
       <c r="E63" s="1">
@@ -1655,7 +1646,7 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="5">
         <v>218</v>
       </c>
       <c r="E64" s="1">
@@ -1672,7 +1663,7 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="5">
         <v>2074</v>
       </c>
       <c r="E65" s="1">
@@ -1689,7 +1680,7 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="5">
         <v>1056</v>
       </c>
       <c r="E66" s="1">
@@ -1706,7 +1697,7 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="5">
         <v>671</v>
       </c>
       <c r="E67" s="1">
@@ -1723,7 +1714,7 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="5">
         <v>1514</v>
       </c>
       <c r="E68" s="1">
@@ -1740,7 +1731,7 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="5">
         <v>274</v>
       </c>
       <c r="E69" s="1">
@@ -1757,7 +1748,7 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="5">
         <v>1138</v>
       </c>
       <c r="E70" s="1">
@@ -1774,7 +1765,7 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="5">
         <v>1372</v>
       </c>
       <c r="E71" s="1">
@@ -1791,7 +1782,7 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="5">
         <v>2349</v>
       </c>
       <c r="E72" s="1">
@@ -1808,7 +1799,7 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="5">
         <v>2689</v>
       </c>
       <c r="E73" s="1">
@@ -1825,7 +1816,7 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="5">
         <v>2431</v>
       </c>
       <c r="E74" s="1">
@@ -1842,7 +1833,7 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="5">
         <v>1303</v>
       </c>
       <c r="E75" s="1">
@@ -1859,7 +1850,7 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="5">
         <v>2992</v>
       </c>
       <c r="E76" s="1">
@@ -1876,7 +1867,7 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="5">
         <v>2385</v>
       </c>
       <c r="E77" s="1">
@@ -1893,7 +1884,7 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="5">
         <v>1607</v>
       </c>
       <c r="E78" s="1">
@@ -1910,7 +1901,7 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="5">
         <v>2327</v>
       </c>
       <c r="E79" s="1">
@@ -1927,7 +1918,7 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="5">
         <v>991</v>
       </c>
       <c r="E80" s="1">
@@ -1944,7 +1935,7 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="5">
         <v>602</v>
       </c>
       <c r="E81" s="1">
@@ -1961,7 +1952,7 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="5">
         <v>2620</v>
       </c>
       <c r="E82" s="1">
@@ -1978,7 +1969,7 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="5">
         <v>1228</v>
       </c>
       <c r="E83" s="1">
@@ -1995,7 +1986,7 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="5">
         <v>1389</v>
       </c>
       <c r="E84" s="1">
@@ -2012,7 +2003,7 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="5">
         <v>861</v>
       </c>
       <c r="E85" s="1">
@@ -2029,7 +2020,7 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="5">
         <v>704</v>
       </c>
       <c r="E86" s="1">
@@ -2046,7 +2037,7 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="5">
         <v>1802</v>
       </c>
       <c r="E87" s="1">
@@ -2063,7 +2054,7 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="5">
         <v>2663</v>
       </c>
       <c r="E88" s="1">
@@ -2080,7 +2071,7 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="5">
         <v>2136</v>
       </c>
       <c r="E89" s="1">
@@ -2097,7 +2088,7 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="5">
         <v>2116</v>
       </c>
       <c r="E90" s="1">
@@ -2114,7 +2105,7 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="5">
         <v>3801</v>
       </c>
       <c r="E91" s="1">
@@ -2131,7 +2122,7 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="5">
         <v>1496</v>
       </c>
       <c r="E92" s="1">
@@ -2148,7 +2139,7 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="5">
         <v>2299</v>
       </c>
       <c r="E93" s="1">
@@ -2165,7 +2156,7 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="5">
         <v>727</v>
       </c>
       <c r="E94" s="1">
@@ -2182,7 +2173,7 @@
       <c r="C95" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="5">
         <v>2198</v>
       </c>
       <c r="E95" s="1">
@@ -2199,7 +2190,7 @@
       <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="5">
         <v>1743</v>
       </c>
       <c r="E96" s="1">
@@ -2216,7 +2207,7 @@
       <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="5">
         <v>1153</v>
       </c>
       <c r="E97" s="1">
@@ -2233,7 +2224,7 @@
       <c r="C98" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="5">
         <v>1757</v>
       </c>
       <c r="E98" s="1">
@@ -2250,7 +2241,7 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="5">
         <v>1031</v>
       </c>
       <c r="E99" s="1">
@@ -2267,7 +2258,7 @@
       <c r="C100" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="5">
         <v>1702</v>
       </c>
       <c r="E100" s="1">
@@ -2284,7 +2275,7 @@
       <c r="C101" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="5">
         <v>448</v>
       </c>
       <c r="E101" s="1">
@@ -2301,7 +2292,7 @@
       <c r="C102" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="5">
         <v>3513</v>
       </c>
       <c r="E102" s="1">
@@ -2318,7 +2309,7 @@
       <c r="C103" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="5">
         <v>2101</v>
       </c>
       <c r="E103" s="1">
@@ -2335,7 +2326,7 @@
       <c r="C104" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="5">
         <v>2931</v>
       </c>
       <c r="E104" s="1">
@@ -2352,7 +2343,7 @@
       <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="5">
         <v>1535</v>
       </c>
       <c r="E105" s="1">
@@ -2369,7 +2360,7 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="5">
         <v>1123</v>
       </c>
       <c r="E106" s="1">
@@ -2386,7 +2377,7 @@
       <c r="C107" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="5">
         <v>1404</v>
       </c>
       <c r="E107" s="1">
@@ -2403,7 +2394,7 @@
       <c r="C108" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="5">
         <v>2763</v>
       </c>
       <c r="E108" s="1">
@@ -2420,7 +2411,7 @@
       <c r="C109" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="5">
         <v>2125</v>
       </c>
       <c r="E109" s="1">
@@ -2437,7 +2428,7 @@
       <c r="C110" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="5">
         <v>257</v>
       </c>
       <c r="E110" s="1">
@@ -2454,7 +2445,7 @@
       <c r="C111" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="5">
         <v>1114</v>
       </c>
       <c r="E111" s="1">
@@ -2471,7 +2462,7 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="5">
         <v>1259</v>
       </c>
       <c r="E112" s="1">
@@ -2488,7 +2479,7 @@
       <c r="C113" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="5">
         <v>1095</v>
       </c>
       <c r="E113" s="1">
@@ -2505,7 +2496,7 @@
       <c r="C114" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="5">
         <v>1366</v>
       </c>
       <c r="E114" s="1">
@@ -2522,7 +2513,7 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="5">
         <v>2460</v>
       </c>
       <c r="E115" s="1">
@@ -2539,7 +2530,7 @@
       <c r="C116" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="5">
         <v>678</v>
       </c>
       <c r="E116" s="1">
@@ -2556,7 +2547,7 @@
       <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="5">
         <v>1598</v>
       </c>
       <c r="E117" s="1">
@@ -2573,7 +2564,7 @@
       <c r="C118" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="5">
         <v>2409</v>
       </c>
       <c r="E118" s="1">
@@ -2590,7 +2581,7 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="5">
         <v>1934</v>
       </c>
       <c r="E119" s="1">
@@ -2607,7 +2598,7 @@
       <c r="C120" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="5">
         <v>2993</v>
       </c>
       <c r="E120" s="1">
@@ -2624,7 +2615,7 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="5">
         <v>2146</v>
       </c>
       <c r="E121" s="1">
@@ -2641,7 +2632,7 @@
       <c r="C122" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="5">
         <v>1946</v>
       </c>
       <c r="E122" s="1">
@@ -2658,7 +2649,7 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="5">
         <v>1362</v>
       </c>
       <c r="E123" s="1">
@@ -2675,7 +2666,7 @@
       <c r="C124" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="5">
         <v>2565</v>
       </c>
       <c r="E124" s="1">
@@ -2692,7 +2683,7 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="5">
         <v>2417</v>
       </c>
       <c r="E125" s="1">
@@ -2709,7 +2700,7 @@
       <c r="C126" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="5">
         <v>3675</v>
       </c>
       <c r="E126" s="1">
@@ -2726,7 +2717,7 @@
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="5">
         <v>1094</v>
       </c>
       <c r="E127" s="1">
@@ -2743,7 +2734,7 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="5">
         <v>1227</v>
       </c>
       <c r="E128" s="1">
@@ -2760,7 +2751,7 @@
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="5">
         <v>367</v>
       </c>
       <c r="E129" s="1">
@@ -2777,7 +2768,7 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="5">
         <v>1324</v>
       </c>
       <c r="E130" s="1">
@@ -2794,7 +2785,7 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="5">
         <v>1775</v>
       </c>
       <c r="E131" s="1">
@@ -2811,7 +2802,7 @@
       <c r="C132" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="5">
         <v>2797</v>
       </c>
       <c r="E132" s="1">
@@ -2828,7 +2819,7 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="5">
         <v>973</v>
       </c>
       <c r="E133" s="1">
@@ -2845,7 +2836,7 @@
       <c r="C134" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="5">
         <v>1038</v>
       </c>
       <c r="E134" s="1">
@@ -2862,7 +2853,7 @@
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="5">
         <v>360</v>
       </c>
       <c r="E135" s="1">
@@ -2879,7 +2870,7 @@
       <c r="C136" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="5">
         <v>386</v>
       </c>
       <c r="E136" s="1">
@@ -2896,7 +2887,7 @@
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="5">
         <v>1954</v>
       </c>
       <c r="E137" s="1">
@@ -2913,7 +2904,7 @@
       <c r="C138" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="5">
         <v>591</v>
       </c>
       <c r="E138" s="1">
@@ -2930,7 +2921,7 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="5">
         <v>2167</v>
       </c>
       <c r="E139" s="1">
@@ -2947,7 +2938,7 @@
       <c r="C140" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="5">
         <v>241</v>
       </c>
       <c r="E140" s="1">
@@ -2964,7 +2955,7 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="5">
         <v>2532</v>
       </c>
       <c r="E141" s="1">
@@ -2981,7 +2972,7 @@
       <c r="C142" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="5">
         <v>1198</v>
       </c>
       <c r="E142" s="1">
@@ -2998,7 +2989,7 @@
       <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="5">
         <v>873</v>
       </c>
       <c r="E143" s="1">
@@ -3015,7 +3006,7 @@
       <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="5">
         <v>1122</v>
       </c>
       <c r="E144" s="1">
@@ -3032,7 +3023,7 @@
       <c r="C145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="5">
         <v>2104.5</v>
       </c>
       <c r="E145" s="1">
@@ -3049,7 +3040,7 @@
       <c r="C146" t="s">
         <v>5</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="5">
         <v>4026</v>
       </c>
       <c r="E146" s="1">
@@ -3066,7 +3057,7 @@
       <c r="C147" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="5">
         <v>2425.5</v>
       </c>
       <c r="E147" s="1">
@@ -3083,7 +3074,7 @@
       <c r="C148" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="5">
         <v>2394</v>
       </c>
       <c r="E148" s="1">
@@ -3100,7 +3091,7 @@
       <c r="C149" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="5">
         <v>1984</v>
       </c>
       <c r="E149" s="1">
@@ -3117,7 +3108,7 @@
       <c r="C150" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="5">
         <v>2441</v>
       </c>
       <c r="E150" s="1">
@@ -3134,7 +3125,7 @@
       <c r="C151" t="s">
         <v>5</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="5">
         <v>2992</v>
       </c>
       <c r="E151" s="1">
@@ -3151,7 +3142,7 @@
       <c r="C152" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="5">
         <v>1366</v>
       </c>
       <c r="E152" s="1">
@@ -3168,7 +3159,7 @@
       <c r="C153" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="5">
         <v>380</v>
       </c>
       <c r="E153" s="1">
@@ -3185,7 +3176,7 @@
       <c r="C154" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="5">
         <v>3495</v>
       </c>
       <c r="E154" s="1">
@@ -3202,7 +3193,7 @@
       <c r="C155" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="5">
         <v>886</v>
       </c>
       <c r="E155" s="1">
@@ -3219,7 +3210,7 @@
       <c r="C156" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="5">
         <v>2156</v>
       </c>
       <c r="E156" s="1">
@@ -3236,7 +3227,7 @@
       <c r="C157" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="5">
         <v>905</v>
       </c>
       <c r="E157" s="1">
@@ -3253,7 +3244,7 @@
       <c r="C158" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="5">
         <v>1715</v>
       </c>
       <c r="E158" s="1">
@@ -3270,7 +3261,7 @@
       <c r="C159" t="s">
         <v>5</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="5">
         <v>1594</v>
       </c>
       <c r="E159" s="1">
@@ -3287,7 +3278,7 @@
       <c r="C160" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="5">
         <v>1359</v>
       </c>
       <c r="E160" s="1">
@@ -3304,7 +3295,7 @@
       <c r="C161" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="5">
         <v>2150</v>
       </c>
       <c r="E161" s="1">
@@ -3321,7 +3312,7 @@
       <c r="C162" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="5">
         <v>1197</v>
       </c>
       <c r="E162" s="1">
@@ -3338,7 +3329,7 @@
       <c r="C163" t="s">
         <v>5</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="5">
         <v>380</v>
       </c>
       <c r="E163" s="1">
@@ -3355,7 +3346,7 @@
       <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="5">
         <v>1233</v>
       </c>
       <c r="E164" s="1">
@@ -3372,7 +3363,7 @@
       <c r="C165" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="5">
         <v>1531</v>
       </c>
       <c r="E165" s="1">
@@ -3389,7 +3380,7 @@
       <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="5">
         <v>1438.5</v>
       </c>
       <c r="E166" s="1">
@@ -3406,7 +3397,7 @@
       <c r="C167" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="5">
         <v>807</v>
       </c>
       <c r="E167" s="1">
@@ -3423,7 +3414,7 @@
       <c r="C168" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="5">
         <v>2641</v>
       </c>
       <c r="E168" s="1">
@@ -3440,7 +3431,7 @@
       <c r="C169" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="5">
         <v>2708</v>
       </c>
       <c r="E169" s="1">
@@ -3457,7 +3448,7 @@
       <c r="C170" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="5">
         <v>2632</v>
       </c>
       <c r="E170" s="1">
@@ -3474,7 +3465,7 @@
       <c r="C171" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="5">
         <v>1583</v>
       </c>
       <c r="E171" s="1">
@@ -3491,7 +3482,7 @@
       <c r="C172" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="5">
         <v>571</v>
       </c>
       <c r="E172" s="1">
@@ -3508,7 +3499,7 @@
       <c r="C173" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="5">
         <v>2696</v>
       </c>
       <c r="E173" s="1">
@@ -3525,7 +3516,7 @@
       <c r="C174" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="5">
         <v>1565</v>
       </c>
       <c r="E174" s="1">
@@ -3542,7 +3533,7 @@
       <c r="C175" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="5">
         <v>1249</v>
       </c>
       <c r="E175" s="1">
@@ -3559,7 +3550,7 @@
       <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="5">
         <v>357</v>
       </c>
       <c r="E176" s="1">
@@ -3576,7 +3567,7 @@
       <c r="C177" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="5">
         <v>1013</v>
       </c>
       <c r="E177" s="1">
@@ -3593,7 +3584,7 @@
       <c r="C178" t="s">
         <v>5</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="5">
         <v>278</v>
       </c>
       <c r="E178" s="1">
@@ -3610,7 +3601,7 @@
       <c r="C179" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="5">
         <v>2428</v>
       </c>
       <c r="E179" s="1">
@@ -3627,7 +3618,7 @@
       <c r="C180" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="5">
         <v>1767</v>
       </c>
       <c r="E180" s="1">
@@ -3644,7 +3635,7 @@
       <c r="C181" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="5">
         <v>1393</v>
       </c>
       <c r="E181" s="1">
@@ -3661,7 +3652,7 @@
       <c r="C182" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="5">
         <v>260</v>
       </c>
       <c r="E182" s="1">
@@ -3678,7 +3669,7 @@
       <c r="C183" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="5">
         <v>2470</v>
       </c>
       <c r="E183" s="1">
@@ -3695,7 +3686,7 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="5">
         <v>1743</v>
       </c>
       <c r="E184" s="1">
@@ -3712,7 +3703,7 @@
       <c r="C185" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="5">
         <v>2914</v>
       </c>
       <c r="E185" s="1">
@@ -3729,7 +3720,7 @@
       <c r="C186" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="5">
         <v>1731</v>
       </c>
       <c r="E186" s="1">
@@ -3746,7 +3737,7 @@
       <c r="C187" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="5">
         <v>700</v>
       </c>
       <c r="E187" s="1">
@@ -3763,7 +3754,7 @@
       <c r="C188" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="5">
         <v>2222</v>
       </c>
       <c r="E188" s="1">
@@ -3780,7 +3771,7 @@
       <c r="C189" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="5">
         <v>1177</v>
       </c>
       <c r="E189" s="1">
@@ -3797,7 +3788,7 @@
       <c r="C190" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="5">
         <v>1922</v>
       </c>
       <c r="E190" s="1">
@@ -3814,7 +3805,7 @@
       <c r="C191" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="5">
         <v>1158</v>
       </c>
       <c r="E191" s="1">
@@ -3831,7 +3822,7 @@
       <c r="C192" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="5">
         <v>1614</v>
       </c>
       <c r="E192" s="1">
@@ -3848,7 +3839,7 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="5">
         <v>2535</v>
       </c>
       <c r="E193" s="1">
@@ -3865,7 +3856,7 @@
       <c r="C194" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="5">
         <v>2851</v>
       </c>
       <c r="E194" s="1">
@@ -3882,7 +3873,7 @@
       <c r="C195" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="5">
         <v>2559</v>
       </c>
       <c r="E195" s="1">
@@ -3899,7 +3890,7 @@
       <c r="C196" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="5">
         <v>267</v>
       </c>
       <c r="E196" s="1">
@@ -3916,7 +3907,7 @@
       <c r="C197" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="5">
         <v>1085</v>
       </c>
       <c r="E197" s="1">
@@ -3933,7 +3924,7 @@
       <c r="C198" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="5">
         <v>1175</v>
       </c>
       <c r="E198" s="1">
@@ -3950,7 +3941,7 @@
       <c r="C199" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="5">
         <v>2007</v>
       </c>
       <c r="E199" s="1">
@@ -3967,7 +3958,7 @@
       <c r="C200" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="5">
         <v>2151</v>
       </c>
       <c r="E200" s="1">
@@ -3984,7 +3975,7 @@
       <c r="C201" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="5">
         <v>914</v>
       </c>
       <c r="E201" s="1">
@@ -4001,7 +3992,7 @@
       <c r="C202" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="5">
         <v>293</v>
       </c>
       <c r="E202" s="1">
@@ -4018,7 +4009,7 @@
       <c r="C203" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="5">
         <v>723</v>
       </c>
       <c r="E203" s="1">
@@ -4035,7 +4026,7 @@
       <c r="C204" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="5">
         <v>921</v>
       </c>
       <c r="E204" s="1">
@@ -4052,7 +4043,7 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="5">
         <v>2518</v>
       </c>
       <c r="E205" s="1">
@@ -4069,7 +4060,7 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="5">
         <v>1899</v>
       </c>
       <c r="E206" s="1">
@@ -4086,7 +4077,7 @@
       <c r="C207" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="5">
         <v>1545</v>
       </c>
       <c r="E207" s="1">
@@ -4103,7 +4094,7 @@
       <c r="C208" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="5">
         <v>2470</v>
       </c>
       <c r="E208" s="1">
@@ -4120,7 +4111,7 @@
       <c r="C209" t="s">
         <v>6</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="5">
         <v>2665.5</v>
       </c>
       <c r="E209" s="1">
@@ -4137,7 +4128,7 @@
       <c r="C210" t="s">
         <v>6</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="5">
         <v>958</v>
       </c>
       <c r="E210" s="1">
@@ -4154,7 +4145,7 @@
       <c r="C211" t="s">
         <v>6</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="5">
         <v>2146</v>
       </c>
       <c r="E211" s="1">
@@ -4171,7 +4162,7 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="5">
         <v>345</v>
       </c>
       <c r="E212" s="1">
@@ -4188,7 +4179,7 @@
       <c r="C213" t="s">
         <v>6</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="5">
         <v>615</v>
       </c>
       <c r="E213" s="1">
@@ -4205,7 +4196,7 @@
       <c r="C214" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="5">
         <v>2214</v>
       </c>
       <c r="E214" s="1">
@@ -4222,7 +4213,7 @@
       <c r="C215" t="s">
         <v>6</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="5">
         <v>2301</v>
       </c>
       <c r="E215" s="1">
@@ -4239,7 +4230,7 @@
       <c r="C216" t="s">
         <v>6</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="5">
         <v>1375.5</v>
       </c>
       <c r="E216" s="1">
@@ -4256,7 +4247,7 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="5">
         <v>1830</v>
       </c>
       <c r="E217" s="1">
@@ -4273,7 +4264,7 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="5">
         <v>2498</v>
       </c>
       <c r="E218" s="1">
@@ -4290,7 +4281,7 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="5">
         <v>663</v>
       </c>
       <c r="E219" s="1">
@@ -4307,7 +4298,7 @@
       <c r="C220" t="s">
         <v>6</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="5">
         <v>1142</v>
       </c>
       <c r="E220" s="1">
@@ -4324,7 +4315,7 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="5">
         <v>1566</v>
       </c>
       <c r="E221" s="1">
@@ -4341,7 +4332,7 @@
       <c r="C222" t="s">
         <v>6</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="5">
         <v>690</v>
       </c>
       <c r="E222" s="1">
@@ -4358,7 +4349,7 @@
       <c r="C223" t="s">
         <v>6</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="5">
         <v>1660</v>
       </c>
       <c r="E223" s="1">
@@ -4375,7 +4366,7 @@
       <c r="C224" t="s">
         <v>6</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="5">
         <v>1958</v>
       </c>
       <c r="E224" s="1">
@@ -4392,7 +4383,7 @@
       <c r="C225" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="5">
         <v>1901</v>
       </c>
       <c r="E225" s="1">
@@ -4409,7 +4400,7 @@
       <c r="C226" t="s">
         <v>6</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="5">
         <v>544</v>
       </c>
       <c r="E226" s="1">
@@ -4426,7 +4417,7 @@
       <c r="C227" t="s">
         <v>6</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="5">
         <v>1797</v>
       </c>
       <c r="E227" s="1">
@@ -4443,7 +4434,7 @@
       <c r="C228" t="s">
         <v>6</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="5">
         <v>1287</v>
       </c>
       <c r="E228" s="1">
@@ -4460,7 +4451,7 @@
       <c r="C229" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="5">
         <v>1706</v>
       </c>
       <c r="E229" s="1">
@@ -4477,7 +4468,7 @@
       <c r="C230" t="s">
         <v>6</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="5">
         <v>2031</v>
       </c>
       <c r="E230" s="1">
@@ -4494,7 +4485,7 @@
       <c r="C231" t="s">
         <v>6</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="5">
         <v>1967</v>
       </c>
       <c r="E231" s="1">
@@ -4511,7 +4502,7 @@
       <c r="C232" t="s">
         <v>6</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="5">
         <v>1859</v>
       </c>
       <c r="E232" s="1">
@@ -4528,7 +4519,7 @@
       <c r="C233" t="s">
         <v>6</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="5">
         <v>2851</v>
       </c>
       <c r="E233" s="1">
@@ -4545,7 +4536,7 @@
       <c r="C234" t="s">
         <v>6</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="5">
         <v>2021</v>
       </c>
       <c r="E234" s="1">
@@ -4562,7 +4553,7 @@
       <c r="C235" t="s">
         <v>6</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="5">
         <v>1138</v>
       </c>
       <c r="E235" s="1">
@@ -4579,7 +4570,7 @@
       <c r="C236" t="s">
         <v>6</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="5">
         <v>1159</v>
       </c>
       <c r="E236" s="1">
@@ -4596,7 +4587,7 @@
       <c r="C237" t="s">
         <v>6</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="5">
         <v>1384.5</v>
       </c>
       <c r="E237" s="1">
@@ -4613,7 +4604,7 @@
       <c r="C238" t="s">
         <v>6</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="5">
         <v>3627</v>
       </c>
       <c r="E238" s="1">
@@ -4630,7 +4621,7 @@
       <c r="C239" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="5">
         <v>720</v>
       </c>
       <c r="E239" s="1">
@@ -4647,7 +4638,7 @@
       <c r="C240" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="5">
         <v>2342</v>
       </c>
       <c r="E240" s="1">
@@ -4664,7 +4655,7 @@
       <c r="C241" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="5">
         <v>1100</v>
       </c>
       <c r="E241" s="1">
@@ -4681,7 +4672,7 @@
       <c r="C242" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="5">
         <v>980</v>
       </c>
       <c r="E242" s="1">
@@ -4698,7 +4689,7 @@
       <c r="C243" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="5">
         <v>1460</v>
       </c>
       <c r="E243" s="1">
@@ -4715,7 +4706,7 @@
       <c r="C244" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="5">
         <v>1403</v>
       </c>
       <c r="E244" s="1">
@@ -4732,7 +4723,7 @@
       <c r="C245" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="5">
         <v>2723</v>
       </c>
       <c r="E245" s="1">
@@ -4749,7 +4740,7 @@
       <c r="C246" t="s">
         <v>6</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="5">
         <v>1757</v>
       </c>
       <c r="E246" s="1">
@@ -4766,7 +4757,7 @@
       <c r="C247" t="s">
         <v>6</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="5">
         <v>2340</v>
       </c>
       <c r="E247" s="1">
@@ -4783,7 +4774,7 @@
       <c r="C248" t="s">
         <v>6</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="5">
         <v>2342</v>
       </c>
       <c r="E248" s="1">
@@ -4800,7 +4791,7 @@
       <c r="C249" t="s">
         <v>6</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="5">
         <v>1976</v>
       </c>
       <c r="E249" s="1">
@@ -4817,7 +4808,7 @@
       <c r="C250" t="s">
         <v>6</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="5">
         <v>2181</v>
       </c>
       <c r="E250" s="1">
@@ -4834,7 +4825,7 @@
       <c r="C251" t="s">
         <v>6</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="5">
         <v>2500</v>
       </c>
       <c r="E251" s="1">
@@ -4851,7 +4842,7 @@
       <c r="C252" t="s">
         <v>6</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="5">
         <v>488</v>
       </c>
       <c r="E252" s="1">
@@ -4868,7 +4859,7 @@
       <c r="C253" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="5">
         <v>1282</v>
       </c>
       <c r="E253" s="1">
@@ -4885,7 +4876,7 @@
       <c r="C254" t="s">
         <v>6</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="5">
         <v>2501</v>
       </c>
       <c r="E254" s="1">
@@ -4902,7 +4893,7 @@
       <c r="C255" t="s">
         <v>6</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="5">
         <v>708</v>
       </c>
       <c r="E255" s="1">
@@ -4919,7 +4910,7 @@
       <c r="C256" t="s">
         <v>6</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="5">
         <v>645</v>
       </c>
       <c r="E256" s="1">
@@ -4936,7 +4927,7 @@
       <c r="C257" t="s">
         <v>6</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="5">
         <v>1562</v>
       </c>
       <c r="E257" s="1">
@@ -4953,7 +4944,7 @@
       <c r="C258" t="s">
         <v>6</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="5">
         <v>1283</v>
       </c>
       <c r="E258" s="1">
@@ -4970,7 +4961,7 @@
       <c r="C259" t="s">
         <v>6</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="5">
         <v>711</v>
       </c>
       <c r="E259" s="1">
@@ -4987,7 +4978,7 @@
       <c r="C260" t="s">
         <v>6</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="5">
         <v>3802.5</v>
       </c>
       <c r="E260" s="1">
@@ -5004,7 +4995,7 @@
       <c r="C261" t="s">
         <v>6</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="5">
         <v>1666</v>
       </c>
       <c r="E261" s="1">
@@ -5021,7 +5012,7 @@
       <c r="C262" t="s">
         <v>6</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="5">
         <v>322</v>
       </c>
       <c r="E262" s="1">
@@ -5038,7 +5029,7 @@
       <c r="C263" t="s">
         <v>6</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="5">
         <v>2321</v>
       </c>
       <c r="E263" s="1">
@@ -5055,7 +5046,7 @@
       <c r="C264" t="s">
         <v>6</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="5">
         <v>1857</v>
       </c>
       <c r="E264" s="1">
@@ -5072,7 +5063,7 @@
       <c r="C265" t="s">
         <v>6</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="5">
         <v>1611</v>
       </c>
       <c r="E265" s="1">
@@ -5089,7 +5080,7 @@
       <c r="C266" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="5">
         <v>2797</v>
       </c>
       <c r="E266" s="1">
@@ -5106,7 +5097,7 @@
       <c r="C267" t="s">
         <v>6</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="5">
         <v>334</v>
       </c>
       <c r="E267" s="1">
@@ -5123,7 +5114,7 @@
       <c r="C268" t="s">
         <v>6</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="5">
         <v>2328</v>
       </c>
       <c r="E268" s="1">
@@ -5140,7 +5131,7 @@
       <c r="C269" t="s">
         <v>6</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="5">
         <v>2313</v>
       </c>
       <c r="E269" s="1">
@@ -5157,7 +5148,7 @@
       <c r="C270" t="s">
         <v>6</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="5">
         <v>1804</v>
       </c>
       <c r="E270" s="1">
@@ -5174,7 +5165,7 @@
       <c r="C271" t="s">
         <v>6</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="5">
         <v>2072</v>
       </c>
       <c r="E271" s="1">
@@ -5191,7 +5182,7 @@
       <c r="C272" t="s">
         <v>6</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="5">
         <v>766</v>
       </c>
       <c r="E272" s="1">
@@ -5208,7 +5199,7 @@
       <c r="C273" t="s">
         <v>6</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="5">
         <v>2992</v>
       </c>
       <c r="E273" s="1">
@@ -5225,7 +5216,7 @@
       <c r="C274" t="s">
         <v>6</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="5">
         <v>2157</v>
       </c>
       <c r="E274" s="1">
@@ -5242,7 +5233,7 @@
       <c r="C275" t="s">
         <v>6</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="5">
         <v>677</v>
       </c>
       <c r="E275" s="1">
@@ -5259,7 +5250,7 @@
       <c r="C276" t="s">
         <v>6</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="5">
         <v>1773</v>
       </c>
       <c r="E276" s="1">
@@ -5276,7 +5267,7 @@
       <c r="C277" t="s">
         <v>6</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="5">
         <v>2420</v>
       </c>
       <c r="E277" s="1">
@@ -5293,7 +5284,7 @@
       <c r="C278" t="s">
         <v>6</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="5">
         <v>2734</v>
       </c>
       <c r="E278" s="1">
@@ -5310,7 +5301,7 @@
       <c r="C279" t="s">
         <v>6</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="5">
         <v>1715</v>
       </c>
       <c r="E279" s="1">
@@ -5327,7 +5318,7 @@
       <c r="C280" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="5">
         <v>1186</v>
       </c>
       <c r="E280" s="1">
@@ -5344,7 +5335,7 @@
       <c r="C281" t="s">
         <v>6</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="5">
         <v>2661</v>
       </c>
       <c r="E281" s="1">
@@ -5361,7 +5352,7 @@
       <c r="C282" t="s">
         <v>6</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="5">
         <v>982.5</v>
       </c>
       <c r="E282" s="1">
@@ -5378,7 +5369,7 @@
       <c r="C283" t="s">
         <v>6</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="5">
         <v>1298</v>
       </c>
       <c r="E283" s="1">
@@ -5395,7 +5386,7 @@
       <c r="C284" t="s">
         <v>6</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="5">
         <v>604</v>
       </c>
       <c r="E284" s="1">
@@ -5412,7 +5403,7 @@
       <c r="C285" t="s">
         <v>6</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="5">
         <v>2255</v>
       </c>
       <c r="E285" s="1">
@@ -5429,7 +5420,7 @@
       <c r="C286" t="s">
         <v>6</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="5">
         <v>1249</v>
       </c>
       <c r="E286" s="1">
@@ -5446,7 +5437,7 @@
       <c r="C287" t="s">
         <v>6</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="5">
         <v>293</v>
       </c>
       <c r="E287" s="1">
@@ -5463,7 +5454,7 @@
       <c r="C288" t="s">
         <v>6</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="5">
         <v>2996</v>
       </c>
       <c r="E288" s="1">
@@ -5480,7 +5471,7 @@
       <c r="C289" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="5">
         <v>2227.5</v>
       </c>
       <c r="E289" s="1">
@@ -5497,7 +5488,7 @@
       <c r="C290" t="s">
         <v>6</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="5">
         <v>1199</v>
       </c>
       <c r="E290" s="1">
@@ -5514,7 +5505,7 @@
       <c r="C291" t="s">
         <v>6</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="5">
         <v>200</v>
       </c>
       <c r="E291" s="1">
@@ -5531,7 +5522,7 @@
       <c r="C292" t="s">
         <v>6</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="5">
         <v>388</v>
       </c>
       <c r="E292" s="1">
@@ -5548,7 +5539,7 @@
       <c r="C293" t="s">
         <v>6</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="5">
         <v>1727</v>
       </c>
       <c r="E293" s="1">
@@ -5565,7 +5556,7 @@
       <c r="C294" t="s">
         <v>6</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="5">
         <v>2300</v>
       </c>
       <c r="E294" s="1">
@@ -5582,7 +5573,7 @@
       <c r="C295" t="s">
         <v>6</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="5">
         <v>546</v>
       </c>
       <c r="E295" s="1">
@@ -5599,7 +5590,7 @@
       <c r="C296" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="5">
         <v>1368</v>
       </c>
       <c r="E296" s="1">
@@ -5616,7 +5607,7 @@
       <c r="C297" t="s">
         <v>7</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="5">
         <v>2750</v>
       </c>
       <c r="E297" s="1">
@@ -5633,7 +5624,7 @@
       <c r="C298" t="s">
         <v>7</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="5">
         <v>1953</v>
       </c>
       <c r="E298" s="1">
@@ -5650,7 +5641,7 @@
       <c r="C299" t="s">
         <v>7</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="5">
         <v>4219.5</v>
       </c>
       <c r="E299" s="1">
@@ -5667,7 +5658,7 @@
       <c r="C300" t="s">
         <v>7</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="5">
         <v>1899</v>
       </c>
       <c r="E300" s="1">
@@ -5684,7 +5675,7 @@
       <c r="C301" t="s">
         <v>7</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="5">
         <v>1686</v>
       </c>
       <c r="E301" s="1">
@@ -5701,7 +5692,7 @@
       <c r="C302" t="s">
         <v>7</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="5">
         <v>2141</v>
       </c>
       <c r="E302" s="1">
@@ -5718,7 +5709,7 @@
       <c r="C303" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="5">
         <v>1143</v>
       </c>
       <c r="E303" s="1">
@@ -5735,7 +5726,7 @@
       <c r="C304" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="5">
         <v>615</v>
       </c>
       <c r="E304" s="1">
@@ -5752,7 +5743,7 @@
       <c r="C305" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="5">
         <v>1989</v>
       </c>
       <c r="E305" s="1">
@@ -5769,7 +5760,7 @@
       <c r="C306" t="s">
         <v>7</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="5">
         <v>321</v>
       </c>
       <c r="E306" s="1">
@@ -5786,7 +5777,7 @@
       <c r="C307" t="s">
         <v>7</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="5">
         <v>259</v>
       </c>
       <c r="E307" s="1">
@@ -5803,7 +5794,7 @@
       <c r="C308" t="s">
         <v>7</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="5">
         <v>1101</v>
       </c>
       <c r="E308" s="1">
@@ -5820,7 +5811,7 @@
       <c r="C309" t="s">
         <v>7</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="5">
         <v>2276</v>
       </c>
       <c r="E309" s="1">
@@ -5837,7 +5828,7 @@
       <c r="C310" t="s">
         <v>7</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="5">
         <v>2966</v>
       </c>
       <c r="E310" s="1">
@@ -5854,7 +5845,7 @@
       <c r="C311" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="5">
         <v>1236</v>
       </c>
       <c r="E311" s="1">
@@ -5871,7 +5862,7 @@
       <c r="C312" t="s">
         <v>7</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="5">
         <v>941</v>
       </c>
       <c r="E312" s="1">
@@ -5888,7 +5879,7 @@
       <c r="C313" t="s">
         <v>7</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="5">
         <v>1916</v>
       </c>
       <c r="E313" s="1">
@@ -5905,7 +5896,7 @@
       <c r="C314" t="s">
         <v>7</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="5">
         <v>1865</v>
       </c>
       <c r="E314" s="1">
@@ -5922,7 +5913,7 @@
       <c r="C315" t="s">
         <v>7</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="5">
         <v>1074</v>
       </c>
       <c r="E315" s="1">
@@ -5939,7 +5930,7 @@
       <c r="C316" t="s">
         <v>7</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="5">
         <v>1907</v>
       </c>
       <c r="E316" s="1">
@@ -5956,7 +5947,7 @@
       <c r="C317" t="s">
         <v>7</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="5">
         <v>671</v>
       </c>
       <c r="E317" s="1">
@@ -5973,7 +5964,7 @@
       <c r="C318" t="s">
         <v>7</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="5">
         <v>1778</v>
       </c>
       <c r="E318" s="1">
@@ -5990,7 +5981,7 @@
       <c r="C319" t="s">
         <v>7</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="5">
         <v>1683</v>
       </c>
       <c r="E319" s="1">
@@ -6007,7 +5998,7 @@
       <c r="C320" t="s">
         <v>7</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="5">
         <v>1123</v>
       </c>
       <c r="E320" s="1">
@@ -6024,7 +6015,7 @@
       <c r="C321" t="s">
         <v>7</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="5">
         <v>1159</v>
       </c>
       <c r="E321" s="1">
@@ -6041,7 +6032,7 @@
       <c r="C322" t="s">
         <v>7</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="5">
         <v>1350</v>
       </c>
       <c r="E322" s="1">
@@ -6058,7 +6049,7 @@
       <c r="C323" t="s">
         <v>7</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="5">
         <v>552</v>
       </c>
       <c r="E323" s="1">
@@ -6075,7 +6066,7 @@
       <c r="C324" t="s">
         <v>7</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="5">
         <v>1228</v>
       </c>
       <c r="E324" s="1">
@@ -6092,7 +6083,7 @@
       <c r="C325" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="5">
         <v>1250</v>
       </c>
       <c r="E325" s="1">
@@ -6109,7 +6100,7 @@
       <c r="C326" t="s">
         <v>7</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="5">
         <v>1987.5</v>
       </c>
       <c r="E326" s="1">
@@ -6126,7 +6117,7 @@
       <c r="C327" t="s">
         <v>7</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="5">
         <v>1679</v>
       </c>
       <c r="E327" s="1">
@@ -6143,7 +6134,7 @@
       <c r="C328" t="s">
         <v>7</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="5">
         <v>727</v>
       </c>
       <c r="E328" s="1">
@@ -6160,7 +6151,7 @@
       <c r="C329" t="s">
         <v>7</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="5">
         <v>1403</v>
       </c>
       <c r="E329" s="1">
@@ -6177,7 +6168,7 @@
       <c r="C330" t="s">
         <v>7</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="5">
         <v>2076</v>
       </c>
       <c r="E330" s="1">
@@ -6194,7 +6185,7 @@
       <c r="C331" t="s">
         <v>7</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="5">
         <v>1135</v>
       </c>
       <c r="E331" s="1">
@@ -6211,7 +6202,7 @@
       <c r="C332" t="s">
         <v>7</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="5">
         <v>1645</v>
       </c>
       <c r="E332" s="1">
@@ -6228,7 +6219,7 @@
       <c r="C333" t="s">
         <v>7</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="5">
         <v>2876</v>
       </c>
       <c r="E333" s="1">
@@ -6245,7 +6236,7 @@
       <c r="C334" t="s">
         <v>7</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334" s="5">
         <v>994</v>
       </c>
       <c r="E334" s="1">
@@ -6262,7 +6253,7 @@
       <c r="C335" t="s">
         <v>7</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335" s="5">
         <v>1118</v>
       </c>
       <c r="E335" s="1">
@@ -6279,7 +6270,7 @@
       <c r="C336" t="s">
         <v>7</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336" s="5">
         <v>1372</v>
       </c>
       <c r="E336" s="1">
@@ -6296,7 +6287,7 @@
       <c r="C337" t="s">
         <v>7</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="5">
         <v>1282</v>
       </c>
       <c r="E337" s="1">
@@ -6313,7 +6304,7 @@
       <c r="C338" t="s">
         <v>7</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="5">
         <v>708</v>
       </c>
       <c r="E338" s="1">
@@ -6330,7 +6321,7 @@
       <c r="C339" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339" s="5">
         <v>2907</v>
       </c>
       <c r="E339" s="1">
@@ -6347,7 +6338,7 @@
       <c r="C340" t="s">
         <v>7</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340" s="5">
         <v>1366</v>
       </c>
       <c r="E340" s="1">
@@ -6364,7 +6355,7 @@
       <c r="C341" t="s">
         <v>7</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341" s="5">
         <v>2460</v>
       </c>
       <c r="E341" s="1">
@@ -6381,7 +6372,7 @@
       <c r="C342" t="s">
         <v>7</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342" s="5">
         <v>1520</v>
       </c>
       <c r="E342" s="1">
@@ -6398,7 +6389,7 @@
       <c r="C343" t="s">
         <v>7</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343" s="5">
         <v>711</v>
       </c>
       <c r="E343" s="1">
@@ -6415,7 +6406,7 @@
       <c r="C344" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="5">
         <v>1375</v>
       </c>
       <c r="E344" s="1">
@@ -6432,7 +6423,7 @@
       <c r="C345" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="5">
         <v>635</v>
       </c>
       <c r="E345" s="1">
@@ -6449,7 +6440,7 @@
       <c r="C346" t="s">
         <v>7</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="5">
         <v>2071</v>
       </c>
       <c r="E346" s="1">
@@ -6466,7 +6457,7 @@
       <c r="C347" t="s">
         <v>7</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347" s="5">
         <v>1269</v>
       </c>
       <c r="E347" s="1">
@@ -6483,7 +6474,7 @@
       <c r="C348" t="s">
         <v>7</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="5">
         <v>970</v>
       </c>
       <c r="E348" s="1">
@@ -6500,7 +6491,7 @@
       <c r="C349" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="5">
         <v>1694</v>
       </c>
       <c r="E349" s="1">
@@ -6517,7 +6508,7 @@
       <c r="C350" t="s">
         <v>7</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="5">
         <v>1038</v>
       </c>
       <c r="E350" s="1">
@@ -6534,7 +6525,7 @@
       <c r="C351" t="s">
         <v>7</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="5">
         <v>1630.5</v>
       </c>
       <c r="E351" s="1">
@@ -6551,7 +6542,7 @@
       <c r="C352" t="s">
         <v>7</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="5">
         <v>306</v>
       </c>
       <c r="E352" s="1">
@@ -6568,7 +6559,7 @@
       <c r="C353" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="5">
         <v>579</v>
       </c>
       <c r="E353" s="1">
@@ -6585,7 +6576,7 @@
       <c r="C354" t="s">
         <v>7</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354" s="5">
         <v>2240</v>
       </c>
       <c r="E354" s="1">
@@ -6602,7 +6593,7 @@
       <c r="C355" t="s">
         <v>7</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="5">
         <v>2993</v>
       </c>
       <c r="E355" s="1">
@@ -6619,7 +6610,7 @@
       <c r="C356" t="s">
         <v>7</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="5">
         <v>3520.5</v>
       </c>
       <c r="E356" s="1">
@@ -6636,7 +6627,7 @@
       <c r="C357" t="s">
         <v>7</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="5">
         <v>2039</v>
       </c>
       <c r="E357" s="1">
@@ -6653,7 +6644,7 @@
       <c r="C358" t="s">
         <v>7</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="5">
         <v>2574</v>
       </c>
       <c r="E358" s="1">
@@ -6670,7 +6661,7 @@
       <c r="C359" t="s">
         <v>7</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="5">
         <v>707</v>
       </c>
       <c r="E359" s="1">
@@ -6687,7 +6678,7 @@
       <c r="C360" t="s">
         <v>7</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="5">
         <v>2072</v>
       </c>
       <c r="E360" s="1">
@@ -6704,7 +6695,7 @@
       <c r="C361" t="s">
         <v>7</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="5">
         <v>853</v>
       </c>
       <c r="E361" s="1">
@@ -6721,7 +6712,7 @@
       <c r="C362" t="s">
         <v>7</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="5">
         <v>3199.5</v>
       </c>
       <c r="E362" s="1">
@@ -6738,7 +6729,7 @@
       <c r="C363" t="s">
         <v>7</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="5">
         <v>472</v>
       </c>
       <c r="E363" s="1">
@@ -6755,7 +6746,7 @@
       <c r="C364" t="s">
         <v>7</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="5">
         <v>3165</v>
       </c>
       <c r="E364" s="1">
@@ -6772,7 +6763,7 @@
       <c r="C365" t="s">
         <v>7</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="5">
         <v>2629</v>
       </c>
       <c r="E365" s="1">
@@ -6789,7 +6780,7 @@
       <c r="C366" t="s">
         <v>7</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="5">
         <v>1433</v>
       </c>
       <c r="E366" s="1">
@@ -6806,7 +6797,7 @@
       <c r="C367" t="s">
         <v>7</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="5">
         <v>947</v>
       </c>
       <c r="E367" s="1">
@@ -6823,7 +6814,7 @@
       <c r="C368" t="s">
         <v>7</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="5">
         <v>344</v>
       </c>
       <c r="E368" s="1">
@@ -6840,7 +6831,7 @@
       <c r="C369" t="s">
         <v>7</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="5">
         <v>2157</v>
       </c>
       <c r="E369" s="1">
@@ -6857,7 +6848,7 @@
       <c r="C370" t="s">
         <v>7</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="5">
         <v>270</v>
       </c>
       <c r="E370" s="1">
@@ -6874,7 +6865,7 @@
       <c r="C371" t="s">
         <v>7</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="5">
         <v>3421.5</v>
       </c>
       <c r="E371" s="1">
@@ -6891,7 +6882,7 @@
       <c r="C372" t="s">
         <v>7</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="5">
         <v>2734</v>
       </c>
       <c r="E372" s="1">
@@ -6908,7 +6899,7 @@
       <c r="C373" t="s">
         <v>7</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="5">
         <v>2548</v>
       </c>
       <c r="E373" s="1">
@@ -6925,7 +6916,7 @@
       <c r="C374" t="s">
         <v>7</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="5">
         <v>2761</v>
       </c>
       <c r="E374" s="1">
@@ -6942,7 +6933,7 @@
       <c r="C375" t="s">
         <v>7</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="5">
         <v>1659</v>
       </c>
       <c r="E375" s="1">
@@ -6959,7 +6950,7 @@
       <c r="C376" t="s">
         <v>7</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="5">
         <v>1190</v>
       </c>
       <c r="E376" s="1">
@@ -6976,7 +6967,7 @@
       <c r="C377" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="5">
         <v>410</v>
       </c>
       <c r="E377" s="1">
@@ -6993,7 +6984,7 @@
       <c r="C378" t="s">
         <v>7</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="5">
         <v>1770</v>
       </c>
       <c r="E378" s="1">
@@ -7010,7 +7001,7 @@
       <c r="C379" t="s">
         <v>7</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="5">
         <v>1393</v>
       </c>
       <c r="E379" s="1">
@@ -7027,7 +7018,7 @@
       <c r="C380" t="s">
         <v>7</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="5">
         <v>2015</v>
       </c>
       <c r="E380" s="1">
@@ -7044,7 +7035,7 @@
       <c r="C381" t="s">
         <v>7</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="5">
         <v>888</v>
       </c>
       <c r="E381" s="1">
@@ -7061,7 +7052,7 @@
       <c r="C382" t="s">
         <v>7</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="5">
         <v>2844</v>
       </c>
       <c r="E382" s="1">
@@ -7078,7 +7069,7 @@
       <c r="C383" t="s">
         <v>7</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="5">
         <v>2475</v>
       </c>
       <c r="E383" s="1">
@@ -7095,7 +7086,7 @@
       <c r="C384" t="s">
         <v>7</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="5">
         <v>1743</v>
       </c>
       <c r="E384" s="1">
@@ -7112,7 +7103,7 @@
       <c r="C385" t="s">
         <v>7</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="5">
         <v>2914</v>
       </c>
       <c r="E385" s="1">
@@ -7129,7 +7120,7 @@
       <c r="C386" t="s">
         <v>7</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="5">
         <v>1731</v>
       </c>
       <c r="E386" s="1">
@@ -7146,7 +7137,7 @@
       <c r="C387" t="s">
         <v>7</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="5">
         <v>1727</v>
       </c>
       <c r="E387" s="1">
@@ -7163,7 +7154,7 @@
       <c r="C388" t="s">
         <v>7</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="5">
         <v>1870</v>
       </c>
       <c r="E388" s="1">
@@ -7180,7 +7171,7 @@
       <c r="C389" t="s">
         <v>7</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="5">
         <v>2475</v>
       </c>
       <c r="E389" s="1">
@@ -7197,7 +7188,7 @@
       <c r="C390" t="s">
         <v>7</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="5">
         <v>546</v>
       </c>
       <c r="E390" s="1">
@@ -7214,7 +7205,7 @@
       <c r="C391" t="s">
         <v>8</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="5">
         <v>1618.5</v>
       </c>
       <c r="E391" s="1">
@@ -7231,7 +7222,7 @@
       <c r="C392" t="s">
         <v>8</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" s="5">
         <v>1321</v>
       </c>
       <c r="E392" s="1">
@@ -7248,7 +7239,7 @@
       <c r="C393" t="s">
         <v>8</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393" s="5">
         <v>2178</v>
       </c>
       <c r="E393" s="1">
@@ -7265,7 +7256,7 @@
       <c r="C394" t="s">
         <v>8</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394" s="5">
         <v>888</v>
       </c>
       <c r="E394" s="1">
@@ -7282,7 +7273,7 @@
       <c r="C395" t="s">
         <v>8</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395" s="5">
         <v>2470</v>
       </c>
       <c r="E395" s="1">
@@ -7299,7 +7290,7 @@
       <c r="C396" t="s">
         <v>8</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396" s="5">
         <v>1513</v>
       </c>
       <c r="E396" s="1">
@@ -7316,7 +7307,7 @@
       <c r="C397" t="s">
         <v>8</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397" s="5">
         <v>1858</v>
       </c>
       <c r="E397" s="1">
@@ -7333,7 +7324,7 @@
       <c r="C398" t="s">
         <v>8</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398" s="5">
         <v>1210</v>
       </c>
       <c r="E398" s="1">
@@ -7350,7 +7341,7 @@
       <c r="C399" t="s">
         <v>8</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399" s="5">
         <v>2529</v>
       </c>
       <c r="E399" s="1">
@@ -7367,7 +7358,7 @@
       <c r="C400" t="s">
         <v>8</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400" s="5">
         <v>1445</v>
       </c>
       <c r="E400" s="1">
@@ -7384,7 +7375,7 @@
       <c r="C401" t="s">
         <v>8</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401" s="5">
         <v>330</v>
       </c>
       <c r="E401" s="1">
@@ -7401,7 +7392,7 @@
       <c r="C402" t="s">
         <v>8</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402" s="5">
         <v>2671</v>
       </c>
       <c r="E402" s="1">
@@ -7418,7 +7409,7 @@
       <c r="C403" t="s">
         <v>8</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="5">
         <v>766</v>
       </c>
       <c r="E403" s="1">
@@ -7435,7 +7426,7 @@
       <c r="C404" t="s">
         <v>8</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="5">
         <v>494</v>
       </c>
       <c r="E404" s="1">
@@ -7452,7 +7443,7 @@
       <c r="C405" t="s">
         <v>8</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="5">
         <v>1397</v>
       </c>
       <c r="E405" s="1">
@@ -7469,7 +7460,7 @@
       <c r="C406" t="s">
         <v>8</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="5">
         <v>2155</v>
       </c>
       <c r="E406" s="1">
@@ -7486,7 +7477,7 @@
       <c r="C407" t="s">
         <v>8</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407" s="5">
         <v>742.5</v>
       </c>
       <c r="E407" s="1">
@@ -7503,7 +7494,7 @@
       <c r="C408" t="s">
         <v>8</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408" s="5">
         <v>1295</v>
       </c>
       <c r="E408" s="1">
@@ -7520,7 +7511,7 @@
       <c r="C409" t="s">
         <v>8</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409" s="5">
         <v>214</v>
       </c>
       <c r="E409" s="1">
@@ -7537,7 +7528,7 @@
       <c r="C410" t="s">
         <v>8</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410" s="5">
         <v>2145</v>
       </c>
       <c r="E410" s="1">
@@ -7554,7 +7545,7 @@
       <c r="C411" t="s">
         <v>8</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411" s="5">
         <v>2852</v>
       </c>
       <c r="E411" s="1">
@@ -7571,7 +7562,7 @@
       <c r="C412" t="s">
         <v>8</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="5">
         <v>4243.5</v>
       </c>
       <c r="E412" s="1">
@@ -7588,7 +7579,7 @@
       <c r="C413" t="s">
         <v>8</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413" s="5">
         <v>2580</v>
       </c>
       <c r="E413" s="1">
@@ -7605,7 +7596,7 @@
       <c r="C414" t="s">
         <v>8</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414" s="5">
         <v>689</v>
       </c>
       <c r="E414" s="1">
@@ -7622,7 +7613,7 @@
       <c r="C415" t="s">
         <v>8</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415" s="5">
         <v>1947</v>
       </c>
       <c r="E415" s="1">
@@ -7639,7 +7630,7 @@
       <c r="C416" t="s">
         <v>8</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416" s="5">
         <v>908</v>
       </c>
       <c r="E416" s="1">
@@ -7656,7 +7647,7 @@
       <c r="C417" t="s">
         <v>8</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417" s="5">
         <v>831</v>
       </c>
       <c r="E417" s="1">
@@ -7673,7 +7664,7 @@
       <c r="C418" t="s">
         <v>8</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418" s="5">
         <v>2851</v>
       </c>
       <c r="E418" s="1">
@@ -7690,7 +7681,7 @@
       <c r="C419" t="s">
         <v>8</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419" s="5">
         <v>2021</v>
       </c>
       <c r="E419" s="1">
@@ -7707,7 +7698,7 @@
       <c r="C420" t="s">
         <v>8</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420" s="5">
         <v>274</v>
       </c>
       <c r="E420" s="1">
@@ -7724,7 +7715,7 @@
       <c r="C421" t="s">
         <v>8</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421" s="5">
         <v>1865</v>
       </c>
       <c r="E421" s="1">
@@ -7741,7 +7732,7 @@
       <c r="C422" t="s">
         <v>8</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422" s="5">
         <v>1116</v>
       </c>
       <c r="E422" s="1">
@@ -7758,7 +7749,7 @@
       <c r="C423" t="s">
         <v>8</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423" s="5">
         <v>1563</v>
       </c>
       <c r="E423" s="1">
@@ -7775,7 +7766,7 @@
       <c r="C424" t="s">
         <v>8</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424" s="5">
         <v>991</v>
       </c>
       <c r="E424" s="1">
@@ -7792,7 +7783,7 @@
       <c r="C425" t="s">
         <v>8</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425" s="5">
         <v>1016</v>
       </c>
       <c r="E425" s="1">
@@ -7809,7 +7800,7 @@
       <c r="C426" t="s">
         <v>8</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426" s="5">
         <v>2791</v>
       </c>
       <c r="E426" s="1">
@@ -7826,7 +7817,7 @@
       <c r="C427" t="s">
         <v>8</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427" s="5">
         <v>570</v>
       </c>
       <c r="E427" s="1">
@@ -7843,7 +7834,7 @@
       <c r="C428" t="s">
         <v>8</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="5">
         <v>2487</v>
       </c>
       <c r="E428" s="1">
@@ -7860,7 +7851,7 @@
       <c r="C429" t="s">
         <v>8</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="5">
         <v>1117.5</v>
       </c>
       <c r="E429" s="1">
@@ -7877,7 +7868,7 @@
       <c r="C430" t="s">
         <v>8</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="5">
         <v>2844</v>
       </c>
       <c r="E430" s="1">
@@ -7894,7 +7885,7 @@
       <c r="C431" t="s">
         <v>8</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431" s="5">
         <v>562</v>
       </c>
       <c r="E431" s="1">
@@ -7911,7 +7902,7 @@
       <c r="C432" t="s">
         <v>8</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432" s="5">
         <v>2299</v>
       </c>
       <c r="E432" s="1">
@@ -7928,7 +7919,7 @@
       <c r="C433" t="s">
         <v>8</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433" s="5">
         <v>2030</v>
       </c>
       <c r="E433" s="1">
@@ -7945,7 +7936,7 @@
       <c r="C434" t="s">
         <v>8</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434" s="5">
         <v>263</v>
       </c>
       <c r="E434" s="1">
@@ -7962,7 +7953,7 @@
       <c r="C435" t="s">
         <v>8</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435" s="5">
         <v>887</v>
       </c>
       <c r="E435" s="1">
@@ -7979,7 +7970,7 @@
       <c r="C436" t="s">
         <v>8</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436" s="5">
         <v>727</v>
       </c>
       <c r="E436" s="1">
@@ -7996,7 +7987,7 @@
       <c r="C437" t="s">
         <v>8</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437" s="5">
         <v>1884</v>
       </c>
       <c r="E437" s="1">
@@ -8013,7 +8004,7 @@
       <c r="C438" t="s">
         <v>8</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="5">
         <v>1834</v>
       </c>
       <c r="E438" s="1">
@@ -8030,7 +8021,7 @@
       <c r="C439" t="s">
         <v>8</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="5">
         <v>1761</v>
       </c>
       <c r="E439" s="1">
@@ -8047,7 +8038,7 @@
       <c r="C440" t="s">
         <v>8</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="5">
         <v>448</v>
       </c>
       <c r="E440" s="1">
@@ -8064,7 +8055,7 @@
       <c r="C441" t="s">
         <v>8</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="5">
         <v>2181</v>
       </c>
       <c r="E441" s="1">
@@ -8081,7 +8072,7 @@
       <c r="C442" t="s">
         <v>8</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="5">
         <v>1540</v>
       </c>
       <c r="E442" s="1">
@@ -8098,7 +8089,7 @@
       <c r="C443" t="s">
         <v>8</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443" s="5">
         <v>490</v>
       </c>
       <c r="E443" s="1">
@@ -8115,7 +8106,7 @@
       <c r="C444" t="s">
         <v>8</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444" s="5">
         <v>1362</v>
       </c>
       <c r="E444" s="1">
@@ -8132,7 +8123,7 @@
       <c r="C445" t="s">
         <v>8</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="5">
         <v>1094</v>
       </c>
       <c r="E445" s="1">
@@ -8149,7 +8140,7 @@
       <c r="C446" t="s">
         <v>8</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446" s="5">
         <v>367</v>
       </c>
       <c r="E446" s="1">
@@ -8166,7 +8157,7 @@
       <c r="C447" t="s">
         <v>8</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="5">
         <v>663</v>
       </c>
       <c r="E447" s="1">
@@ -8183,7 +8174,7 @@
       <c r="C448" t="s">
         <v>8</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="5">
         <v>819</v>
       </c>
       <c r="E448" s="1">
@@ -8200,7 +8191,7 @@
       <c r="C449" t="s">
         <v>8</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="5">
         <v>1580</v>
       </c>
       <c r="E449" s="1">
@@ -8217,7 +8208,7 @@
       <c r="C450" t="s">
         <v>8</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450" s="5">
         <v>521</v>
       </c>
       <c r="E450" s="1">
@@ -8234,7 +8225,7 @@
       <c r="C451" t="s">
         <v>8</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="5">
         <v>386</v>
       </c>
       <c r="E451" s="1">
@@ -8251,7 +8242,7 @@
       <c r="C452" t="s">
         <v>8</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="5">
         <v>3445.5</v>
       </c>
       <c r="E452" s="1">
@@ -8268,7 +8259,7 @@
       <c r="C453" t="s">
         <v>8</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="5">
         <v>1482</v>
       </c>
       <c r="E453" s="1">
@@ -8285,7 +8276,7 @@
       <c r="C454" t="s">
         <v>8</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454" s="5">
         <v>1198</v>
       </c>
       <c r="E454" s="1">
@@ -8302,7 +8293,7 @@
       <c r="C455" t="s">
         <v>8</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455" s="5">
         <v>1937</v>
       </c>
       <c r="E455" s="1">
@@ -8319,7 +8310,7 @@
       <c r="C456" t="s">
         <v>8</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456" s="5">
         <v>792</v>
       </c>
       <c r="E456" s="1">
@@ -8336,7 +8327,7 @@
       <c r="C457" t="s">
         <v>8</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="5">
         <v>2811</v>
       </c>
       <c r="E457" s="1">
@@ -8353,7 +8344,7 @@
       <c r="C458" t="s">
         <v>8</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="5">
         <v>2441</v>
       </c>
       <c r="E458" s="1">
@@ -8370,7 +8361,7 @@
       <c r="C459" t="s">
         <v>8</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="5">
         <v>1560</v>
       </c>
       <c r="E459" s="1">
@@ -8387,7 +8378,7 @@
       <c r="C460" t="s">
         <v>8</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460" s="5">
         <v>2706</v>
       </c>
       <c r="E460" s="1">
@@ -8404,7 +8395,7 @@
       <c r="C461" t="s">
         <v>8</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="5">
         <v>886</v>
       </c>
       <c r="E461" s="1">
@@ -8421,7 +8412,7 @@
       <c r="C462" t="s">
         <v>8</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="5">
         <v>2416</v>
       </c>
       <c r="E462" s="1">
@@ -8438,7 +8429,7 @@
       <c r="C463" t="s">
         <v>8</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="5">
         <v>2156</v>
       </c>
       <c r="E463" s="1">
@@ -8455,7 +8446,7 @@
       <c r="C464" t="s">
         <v>8</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="5">
         <v>2689</v>
       </c>
       <c r="E464" s="1">
@@ -8472,7 +8463,7 @@
       <c r="C465" t="s">
         <v>8</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="5">
         <v>2521.5</v>
       </c>
       <c r="E465" s="1">
@@ -8489,7 +8480,7 @@
       <c r="C466" t="s">
         <v>8</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="5">
         <v>2567</v>
       </c>
       <c r="E466" s="1">
@@ -8506,7 +8497,7 @@
       <c r="C467" t="s">
         <v>8</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467" s="5">
         <v>923</v>
       </c>
       <c r="E467" s="1">
@@ -8523,7 +8514,7 @@
       <c r="C468" t="s">
         <v>8</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468" s="5">
         <v>1790</v>
       </c>
       <c r="E468" s="1">
@@ -8540,7 +8531,7 @@
       <c r="C469" t="s">
         <v>8</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469" s="5">
         <v>442</v>
       </c>
       <c r="E469" s="1">
@@ -8557,7 +8548,7 @@
       <c r="C470" t="s">
         <v>8</v>
       </c>
-      <c r="D470" s="2">
+      <c r="D470" s="5">
         <v>2579</v>
       </c>
       <c r="E470" s="1">
@@ -8574,7 +8565,7 @@
       <c r="C471" t="s">
         <v>8</v>
       </c>
-      <c r="D471" s="2">
+      <c r="D471" s="5">
         <v>1743</v>
       </c>
       <c r="E471" s="1">
@@ -8591,7 +8582,7 @@
       <c r="C472" t="s">
         <v>8</v>
       </c>
-      <c r="D472" s="2">
+      <c r="D472" s="5">
         <v>2996</v>
       </c>
       <c r="E472" s="1">
@@ -8608,7 +8599,7 @@
       <c r="C473" t="s">
         <v>8</v>
       </c>
-      <c r="D473" s="2">
+      <c r="D473" s="5">
         <v>280</v>
       </c>
       <c r="E473" s="1">
@@ -8625,7 +8616,7 @@
       <c r="C474" t="s">
         <v>8</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="5">
         <v>801</v>
       </c>
       <c r="E474" s="1">
@@ -8642,7 +8633,7 @@
       <c r="C475" t="s">
         <v>8</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475" s="5">
         <v>1023</v>
       </c>
       <c r="E475" s="1">
@@ -8659,7 +8650,7 @@
       <c r="C476" t="s">
         <v>8</v>
       </c>
-      <c r="D476" s="2">
+      <c r="D476" s="5">
         <v>1496</v>
       </c>
       <c r="E476" s="1">
@@ -8676,7 +8667,7 @@
       <c r="C477" t="s">
         <v>8</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477" s="5">
         <v>1010</v>
       </c>
       <c r="E477" s="1">
@@ -8693,7 +8684,7 @@
       <c r="C478" t="s">
         <v>8</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478" s="5">
         <v>1513</v>
       </c>
       <c r="E478" s="1">
@@ -8710,7 +8701,7 @@
       <c r="C479" t="s">
         <v>8</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479" s="5">
         <v>2300</v>
       </c>
       <c r="E479" s="1">
@@ -8727,7 +8718,7 @@
       <c r="C480" t="s">
         <v>8</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480" s="5">
         <v>2821</v>
       </c>
       <c r="E480" s="1">
@@ -8744,7 +8735,7 @@
       <c r="C481" t="s">
         <v>8</v>
       </c>
-      <c r="D481" s="2">
+      <c r="D481" s="5">
         <v>1174</v>
       </c>
       <c r="E481" s="1">
@@ -8761,7 +8752,7 @@
       <c r="C482" t="s">
         <v>8</v>
       </c>
-      <c r="D482" s="2">
+      <c r="D482" s="5">
         <v>2767</v>
       </c>
       <c r="E482" s="1">
@@ -8778,7 +8769,7 @@
       <c r="C483" t="s">
         <v>8</v>
       </c>
-      <c r="D483" s="2">
+      <c r="D483" s="5">
         <v>1085</v>
       </c>
       <c r="E483" s="1">
@@ -8795,7 +8786,7 @@
       <c r="C484" t="s">
         <v>9</v>
       </c>
-      <c r="D484" s="2">
+      <c r="D484" s="5">
         <v>2001</v>
       </c>
       <c r="E484" s="1">
@@ -8812,7 +8803,7 @@
       <c r="C485" t="s">
         <v>9</v>
       </c>
-      <c r="D485" s="2">
+      <c r="D485" s="5">
         <v>2838</v>
       </c>
       <c r="E485" s="1">
@@ -8829,7 +8820,7 @@
       <c r="C486" t="s">
         <v>9</v>
       </c>
-      <c r="D486" s="2">
+      <c r="D486" s="5">
         <v>2178</v>
       </c>
       <c r="E486" s="1">
@@ -8846,7 +8837,7 @@
       <c r="C487" t="s">
         <v>9</v>
       </c>
-      <c r="D487" s="2">
+      <c r="D487" s="5">
         <v>888</v>
       </c>
       <c r="E487" s="1">
@@ -8863,7 +8854,7 @@
       <c r="C488" t="s">
         <v>9</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488" s="5">
         <v>1527</v>
       </c>
       <c r="E488" s="1">
@@ -8880,7 +8871,7 @@
       <c r="C489" t="s">
         <v>9</v>
       </c>
-      <c r="D489" s="2">
+      <c r="D489" s="5">
         <v>2151</v>
       </c>
       <c r="E489" s="1">
@@ -8897,7 +8888,7 @@
       <c r="C490" t="s">
         <v>9</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490" s="5">
         <v>1817</v>
       </c>
       <c r="E490" s="1">
@@ -8914,7 +8905,7 @@
       <c r="C491" t="s">
         <v>9</v>
       </c>
-      <c r="D491" s="2">
+      <c r="D491" s="5">
         <v>1326</v>
       </c>
       <c r="E491" s="1">
@@ -8931,7 +8922,7 @@
       <c r="C492" t="s">
         <v>9</v>
       </c>
-      <c r="D492" s="2">
+      <c r="D492" s="5">
         <v>263</v>
       </c>
       <c r="E492" s="1">
@@ -8948,7 +8939,7 @@
       <c r="C493" t="s">
         <v>9</v>
       </c>
-      <c r="D493" s="2">
+      <c r="D493" s="5">
         <v>943.5</v>
       </c>
       <c r="E493" s="1">
@@ -8965,7 +8956,7 @@
       <c r="C494" t="s">
         <v>9</v>
       </c>
-      <c r="D494" s="2">
+      <c r="D494" s="5">
         <v>727</v>
       </c>
       <c r="E494" s="1">
@@ -8982,7 +8973,7 @@
       <c r="C495" t="s">
         <v>9</v>
       </c>
-      <c r="D495" s="2">
+      <c r="D495" s="5">
         <v>787</v>
       </c>
       <c r="E495" s="1">
@@ -8999,7 +8990,7 @@
       <c r="C496" t="s">
         <v>9</v>
       </c>
-      <c r="D496" s="2">
+      <c r="D496" s="5">
         <v>986</v>
       </c>
       <c r="E496" s="1">
@@ -9016,7 +9007,7 @@
       <c r="C497" t="s">
         <v>9</v>
       </c>
-      <c r="D497" s="2">
+      <c r="D497" s="5">
         <v>494</v>
       </c>
       <c r="E497" s="1">
@@ -9033,7 +9024,7 @@
       <c r="C498" t="s">
         <v>9</v>
       </c>
-      <c r="D498" s="2">
+      <c r="D498" s="5">
         <v>1397</v>
       </c>
       <c r="E498" s="1">
@@ -9050,7 +9041,7 @@
       <c r="C499" t="s">
         <v>9</v>
       </c>
-      <c r="D499" s="2">
+      <c r="D499" s="5">
         <v>1744</v>
       </c>
       <c r="E499" s="1">
@@ -9067,7 +9058,7 @@
       <c r="C500" t="s">
         <v>9</v>
       </c>
-      <c r="D500" s="2">
+      <c r="D500" s="5">
         <v>662</v>
       </c>
       <c r="E500" s="1">
@@ -9084,7 +9075,7 @@
       <c r="C501" t="s">
         <v>9</v>
       </c>
-      <c r="D501" s="2">
+      <c r="D501" s="5">
         <v>214</v>
       </c>
       <c r="E501" s="1">
@@ -9101,7 +9092,7 @@
       <c r="C502" t="s">
         <v>9</v>
       </c>
-      <c r="D502" s="2">
+      <c r="D502" s="5">
         <v>2877</v>
       </c>
       <c r="E502" s="1">
@@ -9118,7 +9109,7 @@
       <c r="C503" t="s">
         <v>9</v>
       </c>
-      <c r="D503" s="2">
+      <c r="D503" s="5">
         <v>2729</v>
       </c>
       <c r="E503" s="1">
@@ -9135,7 +9126,7 @@
       <c r="C504" t="s">
         <v>9</v>
       </c>
-      <c r="D504" s="2">
+      <c r="D504" s="5">
         <v>266</v>
       </c>
       <c r="E504" s="1">
@@ -9152,7 +9143,7 @@
       <c r="C505" t="s">
         <v>9</v>
       </c>
-      <c r="D505" s="2">
+      <c r="D505" s="5">
         <v>1940</v>
       </c>
       <c r="E505" s="1">
@@ -9169,7 +9160,7 @@
       <c r="C506" t="s">
         <v>9</v>
       </c>
-      <c r="D506" s="2">
+      <c r="D506" s="5">
         <v>2844</v>
       </c>
       <c r="E506" s="1">
@@ -9186,7 +9177,7 @@
       <c r="C507" t="s">
         <v>9</v>
       </c>
-      <c r="D507" s="2">
+      <c r="D507" s="5">
         <v>1916</v>
       </c>
       <c r="E507" s="1">
@@ -9203,7 +9194,7 @@
       <c r="C508" t="s">
         <v>9</v>
       </c>
-      <c r="D508" s="2">
+      <c r="D508" s="5">
         <v>1570</v>
       </c>
       <c r="E508" s="1">
@@ -9220,7 +9211,7 @@
       <c r="C509" t="s">
         <v>9</v>
       </c>
-      <c r="D509" s="2">
+      <c r="D509" s="5">
         <v>1874</v>
       </c>
       <c r="E509" s="1">
@@ -9237,7 +9228,7 @@
       <c r="C510" t="s">
         <v>9</v>
       </c>
-      <c r="D510" s="2">
+      <c r="D510" s="5">
         <v>1642</v>
       </c>
       <c r="E510" s="1">
@@ -9254,7 +9245,7 @@
       <c r="C511" t="s">
         <v>9</v>
       </c>
-      <c r="D511" s="2">
+      <c r="D511" s="5">
         <v>1945</v>
       </c>
       <c r="E511" s="1">
@@ -9271,7 +9262,7 @@
       <c r="C512" t="s">
         <v>9</v>
       </c>
-      <c r="D512" s="2">
+      <c r="D512" s="5">
         <v>2479</v>
       </c>
       <c r="E512" s="1">
@@ -9288,7 +9279,7 @@
       <c r="C513" t="s">
         <v>9</v>
       </c>
-      <c r="D513" s="2">
+      <c r="D513" s="5">
         <v>866</v>
       </c>
       <c r="E513" s="1">
@@ -9305,7 +9296,7 @@
       <c r="C514" t="s">
         <v>9</v>
       </c>
-      <c r="D514" s="2">
+      <c r="D514" s="5">
         <v>349</v>
       </c>
       <c r="E514" s="1">
@@ -9322,7 +9313,7 @@
       <c r="C515" t="s">
         <v>9</v>
       </c>
-      <c r="D515" s="2">
+      <c r="D515" s="5">
         <v>2177</v>
       </c>
       <c r="E515" s="1">
@@ -9339,7 +9330,7 @@
       <c r="C516" t="s">
         <v>9</v>
       </c>
-      <c r="D516" s="2">
+      <c r="D516" s="5">
         <v>1514</v>
       </c>
       <c r="E516" s="1">
@@ -9356,7 +9347,7 @@
       <c r="C517" t="s">
         <v>9</v>
       </c>
-      <c r="D517" s="2">
+      <c r="D517" s="5">
         <v>2689</v>
       </c>
       <c r="E517" s="1">
@@ -9373,7 +9364,7 @@
       <c r="C518" t="s">
         <v>9</v>
       </c>
-      <c r="D518" s="2">
+      <c r="D518" s="5">
         <v>1389</v>
       </c>
       <c r="E518" s="1">
@@ -9390,7 +9381,7 @@
       <c r="C519" t="s">
         <v>9</v>
       </c>
-      <c r="D519" s="2">
+      <c r="D519" s="5">
         <v>1265</v>
       </c>
       <c r="E519" s="1">
@@ -9407,7 +9398,7 @@
       <c r="C520" t="s">
         <v>9</v>
       </c>
-      <c r="D520" s="2">
+      <c r="D520" s="5">
         <v>2297</v>
       </c>
       <c r="E520" s="1">
@@ -9424,7 +9415,7 @@
       <c r="C521" t="s">
         <v>9</v>
       </c>
-      <c r="D521" s="2">
+      <c r="D521" s="5">
         <v>2663</v>
       </c>
       <c r="E521" s="1">
@@ -9441,7 +9432,7 @@
       <c r="C522" t="s">
         <v>9</v>
       </c>
-      <c r="D522" s="2">
+      <c r="D522" s="5">
         <v>570</v>
       </c>
       <c r="E522" s="1">
@@ -9458,7 +9449,7 @@
       <c r="C523" t="s">
         <v>9</v>
       </c>
-      <c r="D523" s="2">
+      <c r="D523" s="5">
         <v>2487</v>
       </c>
       <c r="E523" s="1">
@@ -9475,7 +9466,7 @@
       <c r="C524" t="s">
         <v>9</v>
       </c>
-      <c r="D524" s="2">
+      <c r="D524" s="5">
         <v>2844</v>
       </c>
       <c r="E524" s="1">
@@ -9492,7 +9483,7 @@
       <c r="C525" t="s">
         <v>9</v>
       </c>
-      <c r="D525" s="2">
+      <c r="D525" s="5">
         <v>1498</v>
       </c>
       <c r="E525" s="1">
@@ -9509,7 +9500,7 @@
       <c r="C526" t="s">
         <v>9</v>
       </c>
-      <c r="D526" s="2">
+      <c r="D526" s="5">
         <v>1221</v>
       </c>
       <c r="E526" s="1">
@@ -9526,7 +9517,7 @@
       <c r="C527" t="s">
         <v>9</v>
       </c>
-      <c r="D527" s="2">
+      <c r="D527" s="5">
         <v>1123</v>
       </c>
       <c r="E527" s="1">
@@ -9543,7 +9534,7 @@
       <c r="C528" t="s">
         <v>9</v>
       </c>
-      <c r="D528" s="2">
+      <c r="D528" s="5">
         <v>2436</v>
       </c>
       <c r="E528" s="1">
@@ -9560,7 +9551,7 @@
       <c r="C529" t="s">
         <v>9</v>
       </c>
-      <c r="D529" s="2">
+      <c r="D529" s="5">
         <v>1153</v>
       </c>
       <c r="E529" s="1">
@@ -9577,7 +9568,7 @@
       <c r="C530" t="s">
         <v>9</v>
       </c>
-      <c r="D530" s="2">
+      <c r="D530" s="5">
         <v>1738.5</v>
       </c>
       <c r="E530" s="1">
@@ -9594,7 +9585,7 @@
       <c r="C531" t="s">
         <v>9</v>
       </c>
-      <c r="D531" s="2">
+      <c r="D531" s="5">
         <v>2215</v>
       </c>
       <c r="E531" s="1">
@@ -9611,7 +9602,7 @@
       <c r="C532" t="s">
         <v>9</v>
       </c>
-      <c r="D532" s="2">
+      <c r="D532" s="5">
         <v>1582</v>
       </c>
       <c r="E532" s="1">
@@ -9628,7 +9619,7 @@
       <c r="C533" t="s">
         <v>9</v>
       </c>
-      <c r="D533" s="2">
+      <c r="D533" s="5">
         <v>3244.5</v>
       </c>
       <c r="E533" s="1">
@@ -9645,7 +9636,7 @@
       <c r="C534" t="s">
         <v>9</v>
       </c>
-      <c r="D534" s="2">
+      <c r="D534" s="5">
         <v>959</v>
       </c>
       <c r="E534" s="1">
@@ -9662,7 +9653,7 @@
       <c r="C535" t="s">
         <v>9</v>
       </c>
-      <c r="D535" s="2">
+      <c r="D535" s="5">
         <v>2747</v>
       </c>
       <c r="E535" s="1">
@@ -9679,7 +9670,7 @@
       <c r="C536" t="s">
         <v>9</v>
       </c>
-      <c r="D536" s="2">
+      <c r="D536" s="5">
         <v>574.5</v>
       </c>
       <c r="E536" s="1">
@@ -9696,7 +9687,7 @@
       <c r="C537" t="s">
         <v>9</v>
       </c>
-      <c r="D537" s="2">
+      <c r="D537" s="5">
         <v>2338</v>
       </c>
       <c r="E537" s="1">
@@ -9713,7 +9704,7 @@
       <c r="C538" t="s">
         <v>9</v>
       </c>
-      <c r="D538" s="2">
+      <c r="D538" s="5">
         <v>381</v>
       </c>
       <c r="E538" s="1">
@@ -9730,7 +9721,7 @@
       <c r="C539" t="s">
         <v>9</v>
       </c>
-      <c r="D539" s="2">
+      <c r="D539" s="5">
         <v>422</v>
       </c>
       <c r="E539" s="1">
@@ -9747,7 +9738,7 @@
       <c r="C540" t="s">
         <v>9</v>
       </c>
-      <c r="D540" s="2">
+      <c r="D540" s="5">
         <v>2134</v>
       </c>
       <c r="E540" s="1">
@@ -9764,7 +9755,7 @@
       <c r="C541" t="s">
         <v>9</v>
       </c>
-      <c r="D541" s="2">
+      <c r="D541" s="5">
         <v>808</v>
       </c>
       <c r="E541" s="1">
@@ -9781,7 +9772,7 @@
       <c r="C542" t="s">
         <v>9</v>
       </c>
-      <c r="D542" s="2">
+      <c r="D542" s="5">
         <v>436.5</v>
       </c>
       <c r="E542" s="1">
@@ -9798,7 +9789,7 @@
       <c r="C543" t="s">
         <v>9</v>
       </c>
-      <c r="D543" s="2">
+      <c r="D543" s="5">
         <v>1956</v>
       </c>
       <c r="E543" s="1">
@@ -9815,7 +9806,7 @@
       <c r="C544" t="s">
         <v>9</v>
       </c>
-      <c r="D544" s="2">
+      <c r="D544" s="5">
         <v>2659</v>
       </c>
       <c r="E544" s="1">
@@ -9832,7 +9823,7 @@
       <c r="C545" t="s">
         <v>9</v>
       </c>
-      <c r="D545" s="2">
+      <c r="D545" s="5">
         <v>1351.5</v>
       </c>
       <c r="E545" s="1">
@@ -9849,7 +9840,7 @@
       <c r="C546" t="s">
         <v>9</v>
       </c>
-      <c r="D546" s="2">
+      <c r="D546" s="5">
         <v>880</v>
       </c>
       <c r="E546" s="1">
@@ -9866,7 +9857,7 @@
       <c r="C547" t="s">
         <v>9</v>
       </c>
-      <c r="D547" s="2">
+      <c r="D547" s="5">
         <v>1867</v>
       </c>
       <c r="E547" s="1">
@@ -9883,7 +9874,7 @@
       <c r="C548" t="s">
         <v>9</v>
       </c>
-      <c r="D548" s="2">
+      <c r="D548" s="5">
         <v>2234</v>
       </c>
       <c r="E548" s="1">
@@ -9900,7 +9891,7 @@
       <c r="C549" t="s">
         <v>9</v>
       </c>
-      <c r="D549" s="2">
+      <c r="D549" s="5">
         <v>1227</v>
       </c>
       <c r="E549" s="1">
@@ -9917,7 +9908,7 @@
       <c r="C550" t="s">
         <v>9</v>
       </c>
-      <c r="D550" s="2">
+      <c r="D550" s="5">
         <v>877</v>
       </c>
       <c r="E550" s="1">
@@ -9934,7 +9925,7 @@
       <c r="C551" t="s">
         <v>9</v>
       </c>
-      <c r="D551" s="2">
+      <c r="D551" s="5">
         <v>360</v>
       </c>
       <c r="E551" s="1">
@@ -9951,7 +9942,7 @@
       <c r="C552" t="s">
         <v>9</v>
       </c>
-      <c r="D552" s="2">
+      <c r="D552" s="5">
         <v>2682</v>
       </c>
       <c r="E552" s="1">
@@ -9968,7 +9959,7 @@
       <c r="C553" t="s">
         <v>9</v>
       </c>
-      <c r="D553" s="2">
+      <c r="D553" s="5">
         <v>521</v>
       </c>
       <c r="E553" s="1">
@@ -9985,7 +9976,7 @@
       <c r="C554" t="s">
         <v>9</v>
       </c>
-      <c r="D554" s="2">
+      <c r="D554" s="5">
         <v>341</v>
       </c>
       <c r="E554" s="1">
@@ -10002,7 +9993,7 @@
       <c r="C555" t="s">
         <v>9</v>
       </c>
-      <c r="D555" s="2">
+      <c r="D555" s="5">
         <v>641</v>
       </c>
       <c r="E555" s="1">
@@ -10019,7 +10010,7 @@
       <c r="C556" t="s">
         <v>9</v>
       </c>
-      <c r="D556" s="2">
+      <c r="D556" s="5">
         <v>2807</v>
       </c>
       <c r="E556" s="1">
@@ -10036,7 +10027,7 @@
       <c r="C557" t="s">
         <v>9</v>
       </c>
-      <c r="D557" s="2">
+      <c r="D557" s="5">
         <v>432</v>
       </c>
       <c r="E557" s="1">
@@ -10053,7 +10044,7 @@
       <c r="C558" t="s">
         <v>9</v>
       </c>
-      <c r="D558" s="2">
+      <c r="D558" s="5">
         <v>2294</v>
       </c>
       <c r="E558" s="1">
@@ -10070,7 +10061,7 @@
       <c r="C559" t="s">
         <v>9</v>
       </c>
-      <c r="D559" s="2">
+      <c r="D559" s="5">
         <v>2167</v>
       </c>
       <c r="E559" s="1">
@@ -10087,7 +10078,7 @@
       <c r="C560" t="s">
         <v>9</v>
       </c>
-      <c r="D560" s="2">
+      <c r="D560" s="5">
         <v>2529</v>
       </c>
       <c r="E560" s="1">
@@ -10104,7 +10095,7 @@
       <c r="C561" t="s">
         <v>9</v>
       </c>
-      <c r="D561" s="2">
+      <c r="D561" s="5">
         <v>1870</v>
       </c>
       <c r="E561" s="1">
@@ -10121,7 +10112,7 @@
       <c r="C562" t="s">
         <v>9</v>
       </c>
-      <c r="D562" s="2">
+      <c r="D562" s="5">
         <v>1579</v>
       </c>
       <c r="E562" s="1">
@@ -10138,7 +10129,7 @@
       <c r="C563" t="s">
         <v>9</v>
       </c>
-      <c r="D563" s="2">
+      <c r="D563" s="5">
         <v>1005</v>
       </c>
       <c r="E563" s="1">
@@ -10155,7 +10146,7 @@
       <c r="C564" t="s">
         <v>9</v>
       </c>
-      <c r="D564" s="2">
+      <c r="D564" s="5">
         <v>1734</v>
       </c>
       <c r="E564" s="1">
@@ -10172,7 +10163,7 @@
       <c r="C565" t="s">
         <v>9</v>
       </c>
-      <c r="D565" s="2">
+      <c r="D565" s="5">
         <v>554</v>
       </c>
       <c r="E565" s="1">
@@ -10189,7 +10180,7 @@
       <c r="C566" t="s">
         <v>9</v>
       </c>
-      <c r="D566" s="2">
+      <c r="D566" s="5">
         <v>2935</v>
       </c>
       <c r="E566" s="1">
@@ -10206,7 +10197,7 @@
       <c r="C567" t="s">
         <v>9</v>
       </c>
-      <c r="D567" s="2">
+      <c r="D567" s="5">
         <v>2109</v>
       </c>
       <c r="E567" s="1">
@@ -10223,7 +10214,7 @@
       <c r="C568" t="s">
         <v>9</v>
       </c>
-      <c r="D568" s="2">
+      <c r="D568" s="5">
         <v>3874.5</v>
       </c>
       <c r="E568" s="1">
@@ -10240,7 +10231,7 @@
       <c r="C569" t="s">
         <v>9</v>
       </c>
-      <c r="D569" s="2">
+      <c r="D569" s="5">
         <v>623</v>
       </c>
       <c r="E569" s="1">
@@ -10257,7 +10248,7 @@
       <c r="C570" t="s">
         <v>9</v>
       </c>
-      <c r="D570" s="2">
+      <c r="D570" s="5">
         <v>986</v>
       </c>
       <c r="E570" s="1">
@@ -10274,7 +10265,7 @@
       <c r="C571" t="s">
         <v>9</v>
       </c>
-      <c r="D571" s="2">
+      <c r="D571" s="5">
         <v>2387</v>
       </c>
       <c r="E571" s="1">
@@ -10291,7 +10282,7 @@
       <c r="C572" t="s">
         <v>9</v>
       </c>
-      <c r="D572" s="2">
+      <c r="D572" s="5">
         <v>1233</v>
       </c>
       <c r="E572" s="1">
@@ -10308,7 +10299,7 @@
       <c r="C573" t="s">
         <v>9</v>
       </c>
-      <c r="D573" s="2">
+      <c r="D573" s="5">
         <v>1491</v>
       </c>
       <c r="E573" s="1">
@@ -10325,7 +10316,7 @@
       <c r="C574" t="s">
         <v>9</v>
       </c>
-      <c r="D574" s="2">
+      <c r="D574" s="5">
         <v>1531</v>
       </c>
       <c r="E574" s="1">
@@ -10342,7 +10333,7 @@
       <c r="C575" t="s">
         <v>9</v>
       </c>
-      <c r="D575" s="2">
+      <c r="D575" s="5">
         <v>2567</v>
       </c>
       <c r="E575" s="1">
@@ -10359,7 +10350,7 @@
       <c r="C576" t="s">
         <v>9</v>
       </c>
-      <c r="D576" s="2">
+      <c r="D576" s="5">
         <v>1583</v>
       </c>
       <c r="E576" s="1">
@@ -10376,7 +10367,7 @@
       <c r="C577" t="s">
         <v>9</v>
       </c>
-      <c r="D577" s="2">
+      <c r="D577" s="5">
         <v>1565</v>
       </c>
       <c r="E577" s="1">
@@ -10393,7 +10384,7 @@
       <c r="C578" t="s">
         <v>9</v>
       </c>
-      <c r="D578" s="2">
+      <c r="D578" s="5">
         <v>280</v>
       </c>
       <c r="E578" s="1">
@@ -10410,7 +10401,7 @@
       <c r="C579" t="s">
         <v>9</v>
       </c>
-      <c r="D579" s="2">
+      <c r="D579" s="5">
         <v>2903</v>
       </c>
       <c r="E579" s="1">
@@ -10427,7 +10418,7 @@
       <c r="C580" t="s">
         <v>9</v>
       </c>
-      <c r="D580" s="2">
+      <c r="D580" s="5">
         <v>2541</v>
       </c>
       <c r="E580" s="1">
@@ -10444,7 +10435,7 @@
       <c r="C581" t="s">
         <v>9</v>
       </c>
-      <c r="D581" s="2">
+      <c r="D581" s="5">
         <v>269</v>
       </c>
       <c r="E581" s="1">
@@ -10461,7 +10452,7 @@
       <c r="C582" t="s">
         <v>9</v>
       </c>
-      <c r="D582" s="2">
+      <c r="D582" s="5">
         <v>1496</v>
       </c>
       <c r="E582" s="1">
@@ -10478,7 +10469,7 @@
       <c r="C583" t="s">
         <v>9</v>
       </c>
-      <c r="D583" s="2">
+      <c r="D583" s="5">
         <v>1010</v>
       </c>
       <c r="E583" s="1">
@@ -10495,7 +10486,7 @@
       <c r="C584" t="s">
         <v>9</v>
       </c>
-      <c r="D584" s="2">
+      <c r="D584" s="5">
         <v>1281</v>
       </c>
       <c r="E584" s="1">
@@ -10512,7 +10503,7 @@
       <c r="C585" t="s">
         <v>9</v>
       </c>
-      <c r="D585" s="2">
+      <c r="D585" s="5">
         <v>865.5</v>
       </c>
       <c r="E585" s="1">
@@ -10529,7 +10520,7 @@
       <c r="C586" t="s">
         <v>9</v>
       </c>
-      <c r="D586" s="2">
+      <c r="D586" s="5">
         <v>492</v>
       </c>
       <c r="E586" s="1">
@@ -10546,7 +10537,7 @@
       <c r="C587" t="s">
         <v>9</v>
       </c>
-      <c r="D587" s="2">
+      <c r="D587" s="5">
         <v>267</v>
       </c>
       <c r="E587" s="1">
@@ -10563,7 +10554,7 @@
       <c r="C588" t="s">
         <v>9</v>
       </c>
-      <c r="D588" s="2">
+      <c r="D588" s="5">
         <v>1175</v>
       </c>
       <c r="E588" s="1">
@@ -10580,7 +10571,7 @@
       <c r="C589" t="s">
         <v>9</v>
       </c>
-      <c r="D589" s="2">
+      <c r="D589" s="5">
         <v>2954</v>
       </c>
       <c r="E589" s="1">
@@ -10597,7 +10588,7 @@
       <c r="C590" t="s">
         <v>9</v>
       </c>
-      <c r="D590" s="2">
+      <c r="D590" s="5">
         <v>552</v>
       </c>
       <c r="E590" s="1">
@@ -10614,7 +10605,7 @@
       <c r="C591" t="s">
         <v>9</v>
       </c>
-      <c r="D591" s="2">
+      <c r="D591" s="5">
         <v>293</v>
       </c>
       <c r="E591" s="1">
@@ -10631,7 +10622,7 @@
       <c r="C592" t="s">
         <v>9</v>
       </c>
-      <c r="D592" s="2">
+      <c r="D592" s="5">
         <v>1806</v>
       </c>
       <c r="E592" s="1">
@@ -10648,7 +10639,7 @@
       <c r="C593" t="s">
         <v>10</v>
       </c>
-      <c r="D593" s="2">
+      <c r="D593" s="5">
         <v>1493</v>
       </c>
       <c r="E593" s="1">
@@ -10665,7 +10656,7 @@
       <c r="C594" t="s">
         <v>10</v>
       </c>
-      <c r="D594" s="2">
+      <c r="D594" s="5">
         <v>1804</v>
       </c>
       <c r="E594" s="1">
@@ -10682,7 +10673,7 @@
       <c r="C595" t="s">
         <v>10</v>
       </c>
-      <c r="D595" s="2">
+      <c r="D595" s="5">
         <v>2161</v>
       </c>
       <c r="E595" s="1">
@@ -10699,7 +10690,7 @@
       <c r="C596" t="s">
         <v>10</v>
       </c>
-      <c r="D596" s="2">
+      <c r="D596" s="5">
         <v>1006</v>
       </c>
       <c r="E596" s="1">
@@ -10716,7 +10707,7 @@
       <c r="C597" t="s">
         <v>10</v>
       </c>
-      <c r="D597" s="2">
+      <c r="D597" s="5">
         <v>1545</v>
       </c>
       <c r="E597" s="1">
@@ -10733,7 +10724,7 @@
       <c r="C598" t="s">
         <v>10</v>
       </c>
-      <c r="D598" s="2">
+      <c r="D598" s="5">
         <v>2821</v>
       </c>
       <c r="E598" s="1">
@@ -10750,7 +10741,7 @@
       <c r="C599" t="s">
         <v>10</v>
       </c>
-      <c r="D599" s="2">
+      <c r="D599" s="5">
         <v>345</v>
       </c>
       <c r="E599" s="1">
@@ -10767,7 +10758,7 @@
       <c r="C600" t="s">
         <v>10</v>
       </c>
-      <c r="D600" s="2">
+      <c r="D600" s="5">
         <v>639</v>
       </c>
       <c r="E600" s="1">
@@ -10784,7 +10775,7 @@
       <c r="C601" t="s">
         <v>10</v>
       </c>
-      <c r="D601" s="2">
+      <c r="D601" s="5">
         <v>3864</v>
       </c>
       <c r="E601" s="1">
@@ -10801,7 +10792,7 @@
       <c r="C602" t="s">
         <v>10</v>
       </c>
-      <c r="D602" s="2">
+      <c r="D602" s="5">
         <v>362</v>
       </c>
       <c r="E602" s="1">
@@ -10818,7 +10809,7 @@
       <c r="C603" t="s">
         <v>10</v>
       </c>
-      <c r="D603" s="2">
+      <c r="D603" s="5">
         <v>923</v>
       </c>
       <c r="E603" s="1">
@@ -10835,7 +10826,7 @@
       <c r="C604" t="s">
         <v>10</v>
       </c>
-      <c r="D604" s="2">
+      <c r="D604" s="5">
         <v>663</v>
       </c>
       <c r="E604" s="1">
@@ -10852,7 +10843,7 @@
       <c r="C605" t="s">
         <v>10</v>
       </c>
-      <c r="D605" s="2">
+      <c r="D605" s="5">
         <v>2092</v>
       </c>
       <c r="E605" s="1">
@@ -10869,7 +10860,7 @@
       <c r="C606" t="s">
         <v>10</v>
       </c>
-      <c r="D606" s="2">
+      <c r="D606" s="5">
         <v>1566</v>
       </c>
       <c r="E606" s="1">
@@ -10886,7 +10877,7 @@
       <c r="C607" t="s">
         <v>10</v>
       </c>
-      <c r="D607" s="2">
+      <c r="D607" s="5">
         <v>2966</v>
       </c>
       <c r="E607" s="1">
@@ -10903,7 +10894,7 @@
       <c r="C608" t="s">
         <v>10</v>
       </c>
-      <c r="D608" s="2">
+      <c r="D608" s="5">
         <v>2877</v>
       </c>
       <c r="E608" s="1">
@@ -10920,7 +10911,7 @@
       <c r="C609" t="s">
         <v>10</v>
       </c>
-      <c r="D609" s="2">
+      <c r="D609" s="5">
         <v>809</v>
       </c>
       <c r="E609" s="1">
@@ -10937,7 +10928,7 @@
       <c r="C610" t="s">
         <v>10</v>
       </c>
-      <c r="D610" s="2">
+      <c r="D610" s="5">
         <v>2145</v>
       </c>
       <c r="E610" s="1">
@@ -10954,7 +10945,7 @@
       <c r="C611" t="s">
         <v>10</v>
       </c>
-      <c r="D611" s="2">
+      <c r="D611" s="5">
         <v>1055</v>
       </c>
       <c r="E611" s="1">
@@ -10971,7 +10962,7 @@
       <c r="C612" t="s">
         <v>10</v>
       </c>
-      <c r="D612" s="2">
+      <c r="D612" s="5">
         <v>544</v>
       </c>
       <c r="E612" s="1">
@@ -10988,7 +10979,7 @@
       <c r="C613" t="s">
         <v>10</v>
       </c>
-      <c r="D613" s="2">
+      <c r="D613" s="5">
         <v>1084</v>
       </c>
       <c r="E613" s="1">
@@ -11005,7 +10996,7 @@
       <c r="C614" t="s">
         <v>10</v>
       </c>
-      <c r="D614" s="2">
+      <c r="D614" s="5">
         <v>2009</v>
       </c>
       <c r="E614" s="1">
@@ -11022,7 +11013,7 @@
       <c r="C615" t="s">
         <v>10</v>
       </c>
-      <c r="D615" s="2">
+      <c r="D615" s="5">
         <v>3850.5</v>
       </c>
       <c r="E615" s="1">
@@ -11039,7 +11030,7 @@
       <c r="C616" t="s">
         <v>10</v>
       </c>
-      <c r="D616" s="2">
+      <c r="D616" s="5">
         <v>736</v>
       </c>
       <c r="E616" s="1">
@@ -11056,7 +11047,7 @@
       <c r="C617" t="s">
         <v>10</v>
       </c>
-      <c r="D617" s="2">
+      <c r="D617" s="5">
         <v>1465</v>
       </c>
       <c r="E617" s="1">
@@ -11073,7 +11064,7 @@
       <c r="C618" t="s">
         <v>10</v>
       </c>
-      <c r="D618" s="2">
+      <c r="D618" s="5">
         <v>2646</v>
       </c>
       <c r="E618" s="1">
@@ -11090,7 +11081,7 @@
       <c r="C619" t="s">
         <v>10</v>
       </c>
-      <c r="D619" s="2">
+      <c r="D619" s="5">
         <v>2177</v>
       </c>
       <c r="E619" s="1">
@@ -11107,7 +11098,7 @@
       <c r="C620" t="s">
         <v>10</v>
       </c>
-      <c r="D620" s="2">
+      <c r="D620" s="5">
         <v>2431</v>
       </c>
       <c r="E620" s="1">
@@ -11124,7 +11115,7 @@
       <c r="C621" t="s">
         <v>10</v>
       </c>
-      <c r="D621" s="2">
+      <c r="D621" s="5">
         <v>555</v>
       </c>
       <c r="E621" s="1">
@@ -11141,7 +11132,7 @@
       <c r="C622" t="s">
         <v>10</v>
       </c>
-      <c r="D622" s="2">
+      <c r="D622" s="5">
         <v>2861</v>
       </c>
       <c r="E622" s="1">
@@ -11158,7 +11149,7 @@
       <c r="C623" t="s">
         <v>10</v>
       </c>
-      <c r="D623" s="2">
+      <c r="D623" s="5">
         <v>807</v>
       </c>
       <c r="E623" s="1">
@@ -11175,7 +11166,7 @@
       <c r="C624" t="s">
         <v>10</v>
       </c>
-      <c r="D624" s="2">
+      <c r="D624" s="5">
         <v>602</v>
       </c>
       <c r="E624" s="1">
@@ -11192,7 +11183,7 @@
       <c r="C625" t="s">
         <v>10</v>
       </c>
-      <c r="D625" s="2">
+      <c r="D625" s="5">
         <v>2832</v>
       </c>
       <c r="E625" s="1">
@@ -11209,7 +11200,7 @@
       <c r="C626" t="s">
         <v>10</v>
       </c>
-      <c r="D626" s="2">
+      <c r="D626" s="5">
         <v>1579</v>
       </c>
       <c r="E626" s="1">
@@ -11226,7 +11217,7 @@
       <c r="C627" t="s">
         <v>10</v>
       </c>
-      <c r="D627" s="2">
+      <c r="D627" s="5">
         <v>861</v>
       </c>
       <c r="E627" s="1">
@@ -11243,7 +11234,7 @@
       <c r="C628" t="s">
         <v>10</v>
       </c>
-      <c r="D628" s="2">
+      <c r="D628" s="5">
         <v>704</v>
       </c>
       <c r="E628" s="1">
@@ -11260,7 +11251,7 @@
       <c r="C629" t="s">
         <v>10</v>
       </c>
-      <c r="D629" s="2">
+      <c r="D629" s="5">
         <v>1033</v>
       </c>
       <c r="E629" s="1">
@@ -11277,7 +11268,7 @@
       <c r="C630" t="s">
         <v>10</v>
       </c>
-      <c r="D630" s="2">
+      <c r="D630" s="5">
         <v>1250</v>
       </c>
       <c r="E630" s="1">
@@ -11294,7 +11285,7 @@
       <c r="C631" t="s">
         <v>10</v>
       </c>
-      <c r="D631" s="2">
+      <c r="D631" s="5">
         <v>952</v>
       </c>
       <c r="E631" s="1">
@@ -11311,7 +11302,7 @@
       <c r="C632" t="s">
         <v>10</v>
       </c>
-      <c r="D632" s="2">
+      <c r="D632" s="5">
         <v>2755</v>
       </c>
       <c r="E632" s="1">
@@ -11328,7 +11319,7 @@
       <c r="C633" t="s">
         <v>10</v>
       </c>
-      <c r="D633" s="2">
+      <c r="D633" s="5">
         <v>1530</v>
       </c>
       <c r="E633" s="1">
@@ -11345,7 +11336,7 @@
       <c r="C634" t="s">
         <v>10</v>
       </c>
-      <c r="D634" s="2">
+      <c r="D634" s="5">
         <v>1496</v>
       </c>
       <c r="E634" s="1">
@@ -11362,7 +11353,7 @@
       <c r="C635" t="s">
         <v>10</v>
       </c>
-      <c r="D635" s="2">
+      <c r="D635" s="5">
         <v>1498</v>
       </c>
       <c r="E635" s="1">
@@ -11379,7 +11370,7 @@
       <c r="C636" t="s">
         <v>10</v>
       </c>
-      <c r="D636" s="2">
+      <c r="D636" s="5">
         <v>1221</v>
       </c>
       <c r="E636" s="1">
@@ -11396,7 +11387,7 @@
       <c r="C637" t="s">
         <v>10</v>
       </c>
-      <c r="D637" s="2">
+      <c r="D637" s="5">
         <v>2076</v>
       </c>
       <c r="E637" s="1">
@@ -11413,7 +11404,7 @@
       <c r="C638" t="s">
         <v>10</v>
       </c>
-      <c r="D638" s="2">
+      <c r="D638" s="5">
         <v>1001</v>
       </c>
       <c r="E638" s="1">
@@ -11430,7 +11421,7 @@
       <c r="C639" t="s">
         <v>10</v>
       </c>
-      <c r="D639" s="2">
+      <c r="D639" s="5">
         <v>1333</v>
       </c>
       <c r="E639" s="1">
@@ -11447,7 +11438,7 @@
       <c r="C640" t="s">
         <v>10</v>
       </c>
-      <c r="D640" s="2">
+      <c r="D640" s="5">
         <v>1262</v>
       </c>
       <c r="E640" s="1">
@@ -11464,7 +11455,7 @@
       <c r="C641" t="s">
         <v>10</v>
       </c>
-      <c r="D641" s="2">
+      <c r="D641" s="5">
         <v>1135</v>
       </c>
       <c r="E641" s="1">
@@ -11481,7 +11472,7 @@
       <c r="C642" t="s">
         <v>10</v>
       </c>
-      <c r="D642" s="2">
+      <c r="D642" s="5">
         <v>547</v>
       </c>
       <c r="E642" s="1">
@@ -11498,7 +11489,7 @@
       <c r="C643" t="s">
         <v>10</v>
       </c>
-      <c r="D643" s="2">
+      <c r="D643" s="5">
         <v>1582</v>
       </c>
       <c r="E643" s="1">
@@ -11515,7 +11506,7 @@
       <c r="C644" t="s">
         <v>10</v>
       </c>
-      <c r="D644" s="2">
+      <c r="D644" s="5">
         <v>1659</v>
       </c>
       <c r="E644" s="1">
@@ -11532,7 +11523,7 @@
       <c r="C645" t="s">
         <v>10</v>
       </c>
-      <c r="D645" s="2">
+      <c r="D645" s="5">
         <v>609</v>
       </c>
       <c r="E645" s="1">
@@ -11549,7 +11540,7 @@
       <c r="C646" t="s">
         <v>10</v>
       </c>
-      <c r="D646" s="2">
+      <c r="D646" s="5">
         <v>2087</v>
       </c>
       <c r="E646" s="1">
@@ -11566,7 +11557,7 @@
       <c r="C647" t="s">
         <v>10</v>
       </c>
-      <c r="D647" s="2">
+      <c r="D647" s="5">
         <v>1976</v>
       </c>
       <c r="E647" s="1">
@@ -11583,7 +11574,7 @@
       <c r="C648" t="s">
         <v>10</v>
       </c>
-      <c r="D648" s="2">
+      <c r="D648" s="5">
         <v>1421</v>
       </c>
       <c r="E648" s="1">
@@ -11600,7 +11591,7 @@
       <c r="C649" t="s">
         <v>10</v>
       </c>
-      <c r="D649" s="2">
+      <c r="D649" s="5">
         <v>1372</v>
       </c>
       <c r="E649" s="1">
@@ -11617,7 +11608,7 @@
       <c r="C650" t="s">
         <v>10</v>
       </c>
-      <c r="D650" s="2">
+      <c r="D650" s="5">
         <v>588</v>
       </c>
       <c r="E650" s="1">
@@ -11634,7 +11625,7 @@
       <c r="C651" t="s">
         <v>10</v>
       </c>
-      <c r="D651" s="2">
+      <c r="D651" s="5">
         <v>598</v>
       </c>
       <c r="E651" s="1">
@@ -11651,7 +11642,7 @@
       <c r="C652" t="s">
         <v>10</v>
       </c>
-      <c r="D652" s="2">
+      <c r="D652" s="5">
         <v>2907</v>
       </c>
       <c r="E652" s="1">
@@ -11668,7 +11659,7 @@
       <c r="C653" t="s">
         <v>10</v>
       </c>
-      <c r="D653" s="2">
+      <c r="D653" s="5">
         <v>2338</v>
       </c>
       <c r="E653" s="1">
@@ -11685,7 +11676,7 @@
       <c r="C654" t="s">
         <v>10</v>
       </c>
-      <c r="D654" s="2">
+      <c r="D654" s="5">
         <v>386</v>
       </c>
       <c r="E654" s="1">
@@ -11702,7 +11693,7 @@
       <c r="C655" t="s">
         <v>10</v>
       </c>
-      <c r="D655" s="2">
+      <c r="D655" s="5">
         <v>635</v>
       </c>
       <c r="E655" s="1">
@@ -11719,7 +11710,7 @@
       <c r="C656" t="s">
         <v>10</v>
       </c>
-      <c r="D656" s="2">
+      <c r="D656" s="5">
         <v>245</v>
       </c>
       <c r="E656" s="1">
@@ -11736,7 +11727,7 @@
       <c r="C657" t="s">
         <v>10</v>
       </c>
-      <c r="D657" s="2">
+      <c r="D657" s="5">
         <v>3793.5</v>
       </c>
       <c r="E657" s="1">
@@ -11753,7 +11744,7 @@
       <c r="C658" t="s">
         <v>10</v>
       </c>
-      <c r="D658" s="2">
+      <c r="D658" s="5">
         <v>1307</v>
       </c>
       <c r="E658" s="1">
@@ -11770,7 +11761,7 @@
       <c r="C659" t="s">
         <v>10</v>
       </c>
-      <c r="D659" s="2">
+      <c r="D659" s="5">
         <v>567</v>
       </c>
       <c r="E659" s="1">
@@ -11787,7 +11778,7 @@
       <c r="C660" t="s">
         <v>10</v>
       </c>
-      <c r="D660" s="2">
+      <c r="D660" s="5">
         <v>2110</v>
       </c>
       <c r="E660" s="1">
@@ -11804,7 +11795,7 @@
       <c r="C661" t="s">
         <v>10</v>
       </c>
-      <c r="D661" s="2">
+      <c r="D661" s="5">
         <v>1269</v>
       </c>
       <c r="E661" s="1">
@@ -11821,7 +11812,7 @@
       <c r="C662" t="s">
         <v>10</v>
       </c>
-      <c r="D662" s="2">
+      <c r="D662" s="5">
         <v>1967</v>
       </c>
       <c r="E662" s="1">
@@ -11838,7 +11829,7 @@
       <c r="C663" t="s">
         <v>10</v>
       </c>
-      <c r="D663" s="2">
+      <c r="D663" s="5">
         <v>2628</v>
       </c>
       <c r="E663" s="1">
@@ -11855,7 +11846,7 @@
       <c r="C664" t="s">
         <v>10</v>
       </c>
-      <c r="D664" s="2">
+      <c r="D664" s="5">
         <v>681</v>
       </c>
       <c r="E664" s="1">
@@ -11872,7 +11863,7 @@
       <c r="C665" t="s">
         <v>10</v>
       </c>
-      <c r="D665" s="2">
+      <c r="D665" s="5">
         <v>510</v>
       </c>
       <c r="E665" s="1">
@@ -11889,7 +11880,7 @@
       <c r="C666" t="s">
         <v>10</v>
       </c>
-      <c r="D666" s="2">
+      <c r="D666" s="5">
         <v>790</v>
       </c>
       <c r="E666" s="1">
@@ -11906,7 +11897,7 @@
       <c r="C667" t="s">
         <v>10</v>
       </c>
-      <c r="D667" s="2">
+      <c r="D667" s="5">
         <v>639</v>
       </c>
       <c r="E667" s="1">
@@ -11923,7 +11914,7 @@
       <c r="C668" t="s">
         <v>10</v>
       </c>
-      <c r="D668" s="2">
+      <c r="D668" s="5">
         <v>1596</v>
       </c>
       <c r="E668" s="1">
@@ -11940,7 +11931,7 @@
       <c r="C669" t="s">
         <v>10</v>
       </c>
-      <c r="D669" s="2">
+      <c r="D669" s="5">
         <v>2294</v>
       </c>
       <c r="E669" s="1">
@@ -11957,7 +11948,7 @@
       <c r="C670" t="s">
         <v>10</v>
       </c>
-      <c r="D670" s="2">
+      <c r="D670" s="5">
         <v>241</v>
       </c>
       <c r="E670" s="1">
@@ -11974,7 +11965,7 @@
       <c r="C671" t="s">
         <v>10</v>
       </c>
-      <c r="D671" s="2">
+      <c r="D671" s="5">
         <v>2665</v>
       </c>
       <c r="E671" s="1">
@@ -11991,7 +11982,7 @@
       <c r="C672" t="s">
         <v>10</v>
       </c>
-      <c r="D672" s="2">
+      <c r="D672" s="5">
         <v>1916</v>
       </c>
       <c r="E672" s="1">
@@ -12008,7 +11999,7 @@
       <c r="C673" t="s">
         <v>10</v>
       </c>
-      <c r="D673" s="2">
+      <c r="D673" s="5">
         <v>853</v>
       </c>
       <c r="E673" s="1">
@@ -12025,7 +12016,7 @@
       <c r="C674" t="s">
         <v>10</v>
       </c>
-      <c r="D674" s="2">
+      <c r="D674" s="5">
         <v>384</v>
       </c>
       <c r="E674" s="1">
@@ -12042,7 +12033,7 @@
       <c r="C675" t="s">
         <v>10</v>
       </c>
-      <c r="D675" s="2">
+      <c r="D675" s="5">
         <v>472</v>
       </c>
       <c r="E675" s="1">
@@ -12059,7 +12050,7 @@
       <c r="C676" t="s">
         <v>10</v>
       </c>
-      <c r="D676" s="2">
+      <c r="D676" s="5">
         <v>2805</v>
       </c>
       <c r="E676" s="1">
@@ -12076,7 +12067,7 @@
       <c r="C677" t="s">
         <v>10</v>
       </c>
-      <c r="D677" s="2">
+      <c r="D677" s="5">
         <v>655</v>
       </c>
       <c r="E677" s="1">
@@ -12093,7 +12084,7 @@
       <c r="C678" t="s">
         <v>10</v>
       </c>
-      <c r="D678" s="2">
+      <c r="D678" s="5">
         <v>344</v>
       </c>
       <c r="E678" s="1">
@@ -12110,7 +12101,7 @@
       <c r="C679" t="s">
         <v>10</v>
       </c>
-      <c r="D679" s="2">
+      <c r="D679" s="5">
         <v>1808</v>
       </c>
       <c r="E679" s="1">
@@ -12127,7 +12118,7 @@
       <c r="C680" t="s">
         <v>10</v>
       </c>
-      <c r="D680" s="2">
+      <c r="D680" s="5">
         <v>1395</v>
       </c>
       <c r="E680" s="1">
@@ -12144,7 +12135,7 @@
       <c r="C681" t="s">
         <v>10</v>
       </c>
-      <c r="D681" s="2">
+      <c r="D681" s="5">
         <v>986</v>
       </c>
       <c r="E681" s="1">
@@ -12161,7 +12152,7 @@
       <c r="C682" t="s">
         <v>10</v>
       </c>
-      <c r="D682" s="2">
+      <c r="D682" s="5">
         <v>905</v>
       </c>
       <c r="E682" s="1">
@@ -12178,7 +12169,7 @@
       <c r="C683" t="s">
         <v>10</v>
       </c>
-      <c r="D683" s="2">
+      <c r="D683" s="5">
         <v>3997.5</v>
       </c>
       <c r="E683" s="1">
@@ -12195,7 +12186,7 @@
       <c r="C684" t="s">
         <v>10</v>
       </c>
-      <c r="D684" s="2">
+      <c r="D684" s="5">
         <v>2632</v>
       </c>
       <c r="E684" s="1">
@@ -12212,7 +12203,7 @@
       <c r="C685" t="s">
         <v>10</v>
       </c>
-      <c r="D685" s="2">
+      <c r="D685" s="5">
         <v>1190</v>
       </c>
       <c r="E685" s="1">
@@ -12229,7 +12220,7 @@
       <c r="C686" t="s">
         <v>10</v>
       </c>
-      <c r="D686" s="2">
+      <c r="D686" s="5">
         <v>604</v>
       </c>
       <c r="E686" s="1">
@@ -12246,7 +12237,7 @@
       <c r="C687" t="s">
         <v>10</v>
       </c>
-      <c r="D687" s="2">
+      <c r="D687" s="5">
         <v>660</v>
       </c>
       <c r="E687" s="1">
@@ -12263,7 +12254,7 @@
       <c r="C688" t="s">
         <v>10</v>
       </c>
-      <c r="D688" s="2">
+      <c r="D688" s="5">
         <v>410</v>
       </c>
       <c r="E688" s="1">
@@ -12280,7 +12271,7 @@
       <c r="C689" t="s">
         <v>10</v>
       </c>
-      <c r="D689" s="2">
+      <c r="D689" s="5">
         <v>2605</v>
       </c>
       <c r="E689" s="1">
@@ -12297,7 +12288,7 @@
       <c r="C690" t="s">
         <v>10</v>
       </c>
-      <c r="D690" s="2">
+      <c r="D690" s="5">
         <v>1013</v>
       </c>
       <c r="E690" s="1">
@@ -12314,7 +12305,7 @@
       <c r="C691" t="s">
         <v>10</v>
       </c>
-      <c r="D691" s="2">
+      <c r="D691" s="5">
         <v>1575</v>
       </c>
       <c r="E691" s="1">
@@ -12331,7 +12322,7 @@
       <c r="C692" t="s">
         <v>10</v>
       </c>
-      <c r="D692" s="2">
+      <c r="D692" s="5">
         <v>606</v>
       </c>
       <c r="E692" s="1">
@@ -12348,7 +12339,7 @@
       <c r="C693" t="s">
         <v>10</v>
       </c>
-      <c r="D693" s="2">
+      <c r="D693" s="5">
         <v>2460</v>
       </c>
       <c r="E693" s="1">
@@ -12365,7 +12356,7 @@
       <c r="C694" t="s">
         <v>10</v>
       </c>
-      <c r="D694" s="2">
+      <c r="D694" s="5">
         <v>269</v>
       </c>
       <c r="E694" s="1">
@@ -12382,7 +12373,7 @@
       <c r="C695" t="s">
         <v>10</v>
       </c>
-      <c r="D695" s="2">
+      <c r="D695" s="5">
         <v>2536</v>
       </c>
       <c r="E695" s="1">
@@ -12399,7 +12390,7 @@
       <c r="C696" t="s">
         <v>10</v>
       </c>
-      <c r="D696" s="2">
+      <c r="D696" s="5">
         <v>500</v>
       </c>
       <c r="E696" s="1">
@@ -12416,7 +12407,7 @@
       <c r="C697" t="s">
         <v>10</v>
       </c>
-      <c r="D697" s="2">
+      <c r="D697" s="5">
         <v>2826</v>
       </c>
       <c r="E697" s="1">
@@ -12433,7 +12424,7 @@
       <c r="C698" t="s">
         <v>10</v>
       </c>
-      <c r="D698" s="2">
+      <c r="D698" s="5">
         <v>663</v>
       </c>
       <c r="E698" s="1">
@@ -12450,7 +12441,7 @@
       <c r="C699" t="s">
         <v>10</v>
       </c>
-      <c r="D699" s="2">
+      <c r="D699" s="5">
         <v>2574</v>
       </c>
       <c r="E699" s="1">
@@ -12467,7 +12458,7 @@
       <c r="C700" t="s">
         <v>10</v>
       </c>
-      <c r="D700" s="2">
+      <c r="D700" s="5">
         <v>2438</v>
       </c>
       <c r="E700" s="1">
@@ -12484,7 +12475,7 @@
       <c r="C701" t="s">
         <v>10</v>
       </c>
-      <c r="D701" s="2">
+      <c r="D701" s="5">
         <v>914</v>
       </c>
       <c r="E701" s="1">
@@ -12522,68 +12513,68 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2.75</v>
       </c>
     </row>
